--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1712304.149541078</v>
+        <v>1682121.913390953</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625948.6630396494</v>
+        <v>625948.6630396501</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5996855.681156749</v>
+        <v>5996855.68115675</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8988464.158300672</v>
+        <v>8988464.158300674</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88.42622435099841</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>16.82161760581715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250842</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>16.77840076253222</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>159.3420425293313</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>16.60557849018875</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>140.196594013159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>46.08932666651348</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>242.0307208363024</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>26.49677716875706</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>159.9479264102629</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>162.5776147681367</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>239.554069004641</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>311.4936872159398</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>99.34508049624304</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,28 +1572,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>9.764863467406773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>40.91389206607264</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>401.3550844723776</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>10.33928636045625</v>
       </c>
       <c r="W16" t="n">
-        <v>196.7218456862865</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>28.92900240760887</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>141.6852429201192</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>43.31785343914003</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>113.4901807465635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>78.89397111695173</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>81.64802493589373</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>30.43968621723572</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>191.0054577399166</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.2106022137938</v>
       </c>
       <c r="H23" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>129.8188433654458</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I24" t="n">
-        <v>50.85619463218985</v>
+        <v>50.85619463218984</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>30.65739549896767</v>
+        <v>30.65739549896765</v>
       </c>
       <c r="S24" t="n">
-        <v>150.8909729053132</v>
+        <v>150.8909729053131</v>
       </c>
       <c r="T24" t="n">
         <v>195.6527971376919</v>
@@ -2475,31 +2475,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>127.2284271446648</v>
       </c>
       <c r="J25" t="n">
-        <v>27.01006717676063</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.578826164188811</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>69.46691083692218</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>9.14892821877957</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I26" t="n">
-        <v>129.8188433654458</v>
+        <v>103.8847958169201</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>18.44902381826978</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S26" t="n">
-        <v>102.7220875035553</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I27" t="n">
-        <v>50.85619463218985</v>
+        <v>50.85619463218984</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>30.65739549896767</v>
+        <v>30.65739549896765</v>
       </c>
       <c r="S27" t="n">
-        <v>150.8909729053132</v>
+        <v>150.8909729053131</v>
       </c>
       <c r="T27" t="n">
         <v>195.6527971376919</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1158076895349</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>53.55762244236441</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>278.2330732088624</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>105.9788559490456</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H29" t="n">
         <v>318.0487214609057</v>
       </c>
       <c r="I29" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>18.44902381826978</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I30" t="n">
-        <v>50.85619463218985</v>
+        <v>50.85619463218984</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>30.65739549896767</v>
+        <v>30.65739549896765</v>
       </c>
       <c r="S30" t="n">
-        <v>150.8909729053132</v>
+        <v>150.8909729053131</v>
       </c>
       <c r="T30" t="n">
         <v>195.6527971376919</v>
@@ -2952,28 +2952,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I31" t="n">
-        <v>20.79447628822832</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J31" t="n">
-        <v>27.01006717676063</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2994,28 +2994,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.578826164188811</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>228.0174121305943</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>321.5997144725165</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S32" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T32" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1782820837292</v>
+        <v>19.51301524450794</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I33" t="n">
-        <v>50.85619463218985</v>
+        <v>50.85619463218984</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>30.65739549896767</v>
+        <v>30.65739549896765</v>
       </c>
       <c r="S33" t="n">
-        <v>150.8909729053132</v>
+        <v>150.8909729053131</v>
       </c>
       <c r="T33" t="n">
         <v>195.6527971376919</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>12.4872144112803</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>69.30534830703726</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H35" t="n">
-        <v>69.488732104262</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>175.3065886404672</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I36" t="n">
-        <v>50.85619463218985</v>
+        <v>50.85619463218984</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>30.65739549896767</v>
+        <v>30.65739549896765</v>
       </c>
       <c r="S36" t="n">
-        <v>150.8909729053132</v>
+        <v>150.8909729053131</v>
       </c>
       <c r="T36" t="n">
         <v>195.6527971376919</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>134.4149289833802</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,13 +3441,13 @@
         <v>167.0525194866071</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>27.01006717676063</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3468,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.578826164188811</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.2149826851309</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>302.3366834885408</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H38" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S38" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T38" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>56.50998518314837</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I39" t="n">
-        <v>50.85619463218985</v>
+        <v>50.85619463218984</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>30.65739549896767</v>
+        <v>30.65739549896765</v>
       </c>
       <c r="S39" t="n">
-        <v>150.8909729053132</v>
+        <v>150.8909729053131</v>
       </c>
       <c r="T39" t="n">
         <v>195.6527971376919</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>198.3232432421956</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>107.9258531693527</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.7709465369289</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.2106022137938</v>
       </c>
       <c r="H41" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>19.51301524450823</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S41" t="n">
         <v>161.3455364069306</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I42" t="n">
-        <v>50.85619463218985</v>
+        <v>50.85619463218984</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>30.65739549896767</v>
+        <v>30.65739549896765</v>
       </c>
       <c r="S42" t="n">
-        <v>150.8909729053132</v>
+        <v>150.8909729053131</v>
       </c>
       <c r="T42" t="n">
         <v>195.6527971376919</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>58.03336157493126</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.0525194866071</v>
       </c>
       <c r="H43" t="n">
-        <v>153.8834111013403</v>
+        <v>108.1317084444307</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>114.9213568973486</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H44" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>18.44902381826978</v>
+        <v>18.44902381826969</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>19.51301524450929</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I45" t="n">
-        <v>50.85619463218985</v>
+        <v>50.85619463218983</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.65739549896767</v>
+        <v>30.65739549896763</v>
       </c>
       <c r="S45" t="n">
-        <v>150.8909729053132</v>
+        <v>150.8909729053131</v>
       </c>
       <c r="T45" t="n">
         <v>195.6527971376919</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>167.0525194866071</v>
       </c>
       <c r="H46" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>44.50475604345812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4179,22 +4179,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.578826164188811</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>135.0968229573668</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T46" t="n">
-        <v>223.9358063394608</v>
+        <v>116.5373170645775</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2625.128868613547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2406.49420158561</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2152.732416223701</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2152.732416223701</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1799.963760953587</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1426.498002692507</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="3">
@@ -4385,58 +4385,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.6939024587813</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C4" t="n">
-        <v>365.6939024587813</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>184.027325963587</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>184.027325963587</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,7 +4497,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
         <v>529.6040388502502</v>
@@ -4506,34 +4506,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587813</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587813</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587813</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587813</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>365.6939024587813</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X4" t="n">
-        <v>365.6939024587813</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.6939024587813</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1970.914677487028</v>
+        <v>1353.10866026757</v>
       </c>
       <c r="C5" t="n">
-        <v>1970.914677487028</v>
+        <v>984.1461433271581</v>
       </c>
       <c r="D5" t="n">
-        <v>1612.648978880278</v>
+        <v>625.8804447204077</v>
       </c>
       <c r="E5" t="n">
-        <v>1226.860726282034</v>
+        <v>625.8804447204077</v>
       </c>
       <c r="F5" t="n">
-        <v>815.874821492426</v>
+        <v>214.8945399308001</v>
       </c>
       <c r="G5" t="n">
-        <v>397.9110133906129</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>70.71629342661572</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.914677487028</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="6">
@@ -4628,19 +4628,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417901</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.2080756496231</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>586.5162629810213</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>359.2080756496231</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>359.2080756496231</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>359.2080756496231</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>359.2080756496231</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>359.2080756496231</v>
+        <v>652.1571896393357</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.2080756496231</v>
+        <v>431.3646104958056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>858.5415908263562</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>472.753338228112</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>465.8078374789085</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>451.8844334174995</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>2494.20718194981</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2310.5492509541</v>
+        <v>1452.061221751177</v>
       </c>
       <c r="C11" t="n">
-        <v>1941.586734013689</v>
+        <v>1452.061221751177</v>
       </c>
       <c r="D11" t="n">
-        <v>1583.321035406938</v>
+        <v>1452.061221751177</v>
       </c>
       <c r="E11" t="n">
-        <v>1197.532782808694</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F11" t="n">
-        <v>786.5468780190865</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>368.5830699172734</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5053,7 +5053,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5220,31 +5220,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>336.2769833124031</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="V13" t="n">
-        <v>336.2769833124031</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W13" t="n">
-        <v>336.2769833124031</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X13" t="n">
-        <v>336.2769833124031</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y13" t="n">
-        <v>336.2769833124031</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2310.5492509541</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="C14" t="n">
-        <v>1941.586734013689</v>
+        <v>924.2198584148889</v>
       </c>
       <c r="D14" t="n">
-        <v>1583.321035406938</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
-        <v>1197.532782808694</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>786.5468780190865</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5311,19 +5311,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018222</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="15">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
         <v>53.94298182036445</v>
@@ -5460,28 +5460,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V16" t="n">
-        <v>473.4444960005476</v>
+        <v>569.538602044198</v>
       </c>
       <c r="W16" t="n">
-        <v>274.7355609638946</v>
+        <v>569.538602044198</v>
       </c>
       <c r="X16" t="n">
-        <v>274.7355609638946</v>
+        <v>569.538602044198</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>833.8914035503838</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C17" t="n">
-        <v>464.928886609972</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D17" t="n">
-        <v>464.928886609972</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2667.927876465082</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V17" t="n">
-        <v>2336.864989121511</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W17" t="n">
-        <v>1984.096333851397</v>
+        <v>1949.306440187188</v>
       </c>
       <c r="X17" t="n">
-        <v>1610.630575590317</v>
+        <v>1575.840681926108</v>
       </c>
       <c r="Y17" t="n">
-        <v>1220.491243614505</v>
+        <v>1185.701349950297</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="D19" t="n">
         <v>53.94298182036445</v>
@@ -5697,28 +5697,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>684.3735766921516</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>684.3735766921516</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W19" t="n">
-        <v>684.3735766921516</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X19" t="n">
-        <v>456.3840257941342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y19" t="n">
-        <v>235.5914466506042</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1526.329725433337</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="C20" t="n">
-        <v>1157.367208492925</v>
+        <v>1383.317493518679</v>
       </c>
       <c r="D20" t="n">
-        <v>799.1015098861748</v>
+        <v>1383.317493518679</v>
       </c>
       <c r="E20" t="n">
-        <v>799.1015098861748</v>
+        <v>997.5292409204351</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>586.5433361308276</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>168.5795280290145</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>168.5795280290145</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
@@ -5758,7 +5758,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5782,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2617.45821110211</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V20" t="n">
-        <v>2286.395323758539</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W20" t="n">
-        <v>2286.395323758539</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X20" t="n">
-        <v>1912.929565497459</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y20" t="n">
-        <v>1912.929565497459</v>
+        <v>1752.280010459091</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>136.4157342808632</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>136.4157342808632</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>136.4157342808632</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5937,25 +5937,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V22" t="n">
-        <v>473.4444960005476</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W22" t="n">
-        <v>184.027325963587</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1857.141244244548</v>
+        <v>1812.200720213946</v>
       </c>
       <c r="C23" t="n">
-        <v>1488.178727304137</v>
+        <v>1443.238203273534</v>
       </c>
       <c r="D23" t="n">
-        <v>1129.913028697386</v>
+        <v>1412.491045478347</v>
       </c>
       <c r="E23" t="n">
-        <v>1129.913028697386</v>
+        <v>1026.702792880102</v>
       </c>
       <c r="F23" t="n">
-        <v>936.9782228994906</v>
+        <v>615.7168880904949</v>
       </c>
       <c r="G23" t="n">
-        <v>519.5937762188908</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H23" t="n">
         <v>198.3324414098951</v>
       </c>
       <c r="I23" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J23" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821406</v>
       </c>
       <c r="K23" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726755</v>
       </c>
       <c r="L23" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M23" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375318</v>
       </c>
       <c r="N23" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.663407417572</v>
       </c>
       <c r="O23" t="n">
         <v>2758.834606696548</v>
       </c>
       <c r="P23" t="n">
-        <v>3146.337816775583</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q23" t="n">
-        <v>3360.114829815676</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="R23" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S23" t="n">
-        <v>3360.114829815676</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="T23" t="n">
-        <v>3360.114829815676</v>
+        <v>2962.405650514959</v>
       </c>
       <c r="U23" t="n">
-        <v>3360.114829815676</v>
+        <v>2962.405650514959</v>
       </c>
       <c r="V23" t="n">
-        <v>3360.114829815676</v>
+        <v>2962.405650514959</v>
       </c>
       <c r="W23" t="n">
-        <v>3007.346174545562</v>
+        <v>2962.405650514959</v>
       </c>
       <c r="X23" t="n">
-        <v>2633.880416284482</v>
+        <v>2588.939892253879</v>
       </c>
       <c r="Y23" t="n">
-        <v>2243.74108430867</v>
+        <v>2198.800560278068</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I24" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J24" t="n">
-        <v>67.20229659631352</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K24" t="n">
-        <v>371.5093956067678</v>
+        <v>475.4705993509099</v>
       </c>
       <c r="L24" t="n">
-        <v>842.0922403416541</v>
+        <v>946.0534440857964</v>
       </c>
       <c r="M24" t="n">
-        <v>1443.219445828731</v>
+        <v>1547.180649572873</v>
       </c>
       <c r="N24" t="n">
-        <v>2075.963713122682</v>
+        <v>1705.375966266707</v>
       </c>
       <c r="O24" t="n">
-        <v>2588.297023317</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P24" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q24" t="n">
         <v>2670.157851783212</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3100.642388216637</v>
+        <v>514.7686817089449</v>
       </c>
       <c r="C25" t="n">
-        <v>3100.642388216637</v>
+        <v>345.832498781038</v>
       </c>
       <c r="D25" t="n">
-        <v>3100.642388216637</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="E25" t="n">
-        <v>2952.729294634244</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="F25" t="n">
-        <v>2952.729294634244</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="G25" t="n">
-        <v>2783.989375960903</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="H25" t="n">
-        <v>2628.55158696965</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="I25" t="n">
-        <v>2500.038024197261</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J25" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K25" t="n">
-        <v>2558.649985611873</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L25" t="n">
-        <v>2724.092265317944</v>
+        <v>318.5394338551382</v>
       </c>
       <c r="M25" t="n">
-        <v>2908.917075643209</v>
+        <v>503.3642441804035</v>
       </c>
       <c r="N25" t="n">
-        <v>3094.781781504556</v>
+        <v>689.2289500417505</v>
       </c>
       <c r="O25" t="n">
-        <v>3250.441624927401</v>
+        <v>844.888793464596</v>
       </c>
       <c r="P25" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="Q25" t="n">
-        <v>3352.459449851849</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="R25" t="n">
-        <v>3282.290853046877</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="S25" t="n">
-        <v>3282.290853046877</v>
+        <v>744.8026024876059</v>
       </c>
       <c r="T25" t="n">
-        <v>3282.290853046877</v>
+        <v>744.8026024876059</v>
       </c>
       <c r="U25" t="n">
-        <v>3282.290853046877</v>
+        <v>744.8026024876059</v>
       </c>
       <c r="V25" t="n">
-        <v>3282.290853046877</v>
+        <v>744.8026024876059</v>
       </c>
       <c r="W25" t="n">
-        <v>3282.290853046877</v>
+        <v>744.8026024876059</v>
       </c>
       <c r="X25" t="n">
-        <v>3282.290853046877</v>
+        <v>735.561260852475</v>
       </c>
       <c r="Y25" t="n">
-        <v>3282.290853046877</v>
+        <v>514.7686817089449</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2460.980595834505</v>
+        <v>2048.996335611487</v>
       </c>
       <c r="C26" t="n">
-        <v>2092.018078894093</v>
+        <v>1680.033818671075</v>
       </c>
       <c r="D26" t="n">
-        <v>1733.752380287342</v>
+        <v>1321.768120064325</v>
       </c>
       <c r="E26" t="n">
-        <v>1347.964127689098</v>
+        <v>1321.768120064325</v>
       </c>
       <c r="F26" t="n">
-        <v>936.9782228994906</v>
+        <v>910.7822152747171</v>
       </c>
       <c r="G26" t="n">
-        <v>519.5937762188908</v>
+        <v>493.3977685941173</v>
       </c>
       <c r="H26" t="n">
-        <v>198.3324414098951</v>
+        <v>172.1364337851217</v>
       </c>
       <c r="I26" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J26" t="n">
         <v>231.1641949821403</v>
@@ -6232,10 +6232,10 @@
         <v>597.6453821726751</v>
       </c>
       <c r="L26" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M26" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375318</v>
       </c>
       <c r="N26" t="n">
         <v>2260.663407417571</v>
@@ -6244,34 +6244,34 @@
         <v>2758.834606696548</v>
       </c>
       <c r="P26" t="n">
-        <v>3146.337816775583</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q26" t="n">
-        <v>3360.114829815676</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="R26" t="n">
-        <v>3341.479452221464</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S26" t="n">
-        <v>3237.719767874438</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="T26" t="n">
-        <v>3237.719767874438</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="U26" t="n">
-        <v>3237.719767874438</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="V26" t="n">
-        <v>3237.719767874438</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="W26" t="n">
-        <v>3237.719767874438</v>
+        <v>2825.73550765142</v>
       </c>
       <c r="X26" t="n">
-        <v>3237.719767874438</v>
+        <v>2825.73550765142</v>
       </c>
       <c r="Y26" t="n">
-        <v>2847.580435898627</v>
+        <v>2435.596175675609</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I27" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J27" t="n">
-        <v>67.20229659631352</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K27" t="n">
-        <v>371.5093956067678</v>
+        <v>475.4705993509099</v>
       </c>
       <c r="L27" t="n">
-        <v>842.0922403416541</v>
+        <v>946.0534440857964</v>
       </c>
       <c r="M27" t="n">
-        <v>1443.219445828731</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N27" t="n">
-        <v>2075.963713122682</v>
+        <v>1552.620657808585</v>
       </c>
       <c r="O27" t="n">
-        <v>2588.297023317</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P27" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q27" t="n">
         <v>2670.157851783212</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="C28" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="D28" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="E28" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="F28" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G28" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H28" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I28" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J28" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K28" t="n">
         <v>153.0971541490671</v>
       </c>
       <c r="L28" t="n">
-        <v>318.5394338551381</v>
+        <v>318.5394338551382</v>
       </c>
       <c r="M28" t="n">
-        <v>503.3642441804034</v>
+        <v>503.3642441804035</v>
       </c>
       <c r="N28" t="n">
-        <v>689.2289500417503</v>
+        <v>689.2289500417505</v>
       </c>
       <c r="O28" t="n">
-        <v>844.8887934645957</v>
+        <v>844.888793464596</v>
       </c>
       <c r="P28" t="n">
-        <v>954.5619983528702</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="Q28" t="n">
-        <v>954.5619983528702</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="R28" t="n">
-        <v>954.5619983528702</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="S28" t="n">
-        <v>954.5619983528702</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="T28" t="n">
-        <v>954.5619983528702</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="U28" t="n">
-        <v>839.2935057371784</v>
+        <v>665.4025633668018</v>
       </c>
       <c r="V28" t="n">
-        <v>584.6090175312916</v>
+        <v>410.718075160915</v>
       </c>
       <c r="W28" t="n">
-        <v>295.1918474943309</v>
+        <v>121.3009051239544</v>
       </c>
       <c r="X28" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="Y28" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1037.629030451979</v>
+        <v>2225.105706714459</v>
       </c>
       <c r="C29" t="n">
-        <v>1037.629030451979</v>
+        <v>1856.143189774047</v>
       </c>
       <c r="D29" t="n">
-        <v>1037.629030451979</v>
+        <v>1497.877491167297</v>
       </c>
       <c r="E29" t="n">
-        <v>1037.629030451979</v>
+        <v>1216.833982875517</v>
       </c>
       <c r="F29" t="n">
-        <v>626.6431256623712</v>
+        <v>805.848078085909</v>
       </c>
       <c r="G29" t="n">
-        <v>519.5937762188908</v>
+        <v>388.4636314053092</v>
       </c>
       <c r="H29" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I29" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J29" t="n">
-        <v>231.1641949821401</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K29" t="n">
-        <v>597.645382172675</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L29" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M29" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375318</v>
       </c>
       <c r="N29" t="n">
-        <v>2260.66340741757</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O29" t="n">
-        <v>2758.834606696547</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P29" t="n">
-        <v>3146.337816775583</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q29" t="n">
-        <v>3360.114829815676</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="R29" t="n">
-        <v>3341.479452221464</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S29" t="n">
-        <v>3341.479452221464</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="T29" t="n">
-        <v>3125.380939814888</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="U29" t="n">
-        <v>2871.665503366677</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="V29" t="n">
-        <v>2540.602616023106</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="W29" t="n">
-        <v>2187.833960752992</v>
+        <v>2988.71079695135</v>
       </c>
       <c r="X29" t="n">
-        <v>1814.368202491912</v>
+        <v>2615.245038690271</v>
       </c>
       <c r="Y29" t="n">
-        <v>1424.2288705161</v>
+        <v>2225.105706714459</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I30" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J30" t="n">
-        <v>67.20229659631352</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K30" t="n">
-        <v>109.688810964315</v>
+        <v>475.4705993509099</v>
       </c>
       <c r="L30" t="n">
-        <v>526.7256998860481</v>
+        <v>946.0534440857964</v>
       </c>
       <c r="M30" t="n">
-        <v>1127.852905373125</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N30" t="n">
-        <v>1760.597172667076</v>
+        <v>1552.620657808585</v>
       </c>
       <c r="O30" t="n">
-        <v>2273.018882363463</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P30" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q30" t="n">
         <v>2670.157851783212</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>582.4556301603523</v>
+        <v>498.0435958578654</v>
       </c>
       <c r="C31" t="n">
-        <v>413.5194472324454</v>
+        <v>498.0435958578654</v>
       </c>
       <c r="D31" t="n">
-        <v>263.4028078201096</v>
+        <v>498.0435958578654</v>
       </c>
       <c r="E31" t="n">
-        <v>115.4897142377165</v>
+        <v>498.0435958578654</v>
       </c>
       <c r="F31" t="n">
-        <v>115.4897142377165</v>
+        <v>351.1536483599551</v>
       </c>
       <c r="G31" t="n">
-        <v>115.4897142377165</v>
+        <v>351.1536483599551</v>
       </c>
       <c r="H31" t="n">
-        <v>115.4897142377165</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="I31" t="n">
-        <v>94.48519273445557</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J31" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K31" t="n">
         <v>153.0971541490671</v>
       </c>
       <c r="L31" t="n">
-        <v>318.5394338551381</v>
+        <v>318.5394338551382</v>
       </c>
       <c r="M31" t="n">
-        <v>503.3642441804034</v>
+        <v>503.3642441804035</v>
       </c>
       <c r="N31" t="n">
-        <v>689.2289500417503</v>
+        <v>689.2289500417505</v>
       </c>
       <c r="O31" t="n">
-        <v>844.8887934645957</v>
+        <v>844.888793464596</v>
       </c>
       <c r="P31" t="n">
-        <v>954.5619983528702</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="Q31" t="n">
-        <v>946.9066183890432</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="R31" t="n">
-        <v>810.4451810583696</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="S31" t="n">
-        <v>810.4451810583696</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="T31" t="n">
-        <v>810.4451810583696</v>
+        <v>728.364214171597</v>
       </c>
       <c r="U31" t="n">
-        <v>810.4451810583696</v>
+        <v>728.364214171597</v>
       </c>
       <c r="V31" t="n">
-        <v>810.4451810583696</v>
+        <v>498.0435958578654</v>
       </c>
       <c r="W31" t="n">
-        <v>810.4451810583696</v>
+        <v>498.0435958578654</v>
       </c>
       <c r="X31" t="n">
-        <v>582.4556301603523</v>
+        <v>498.0435958578654</v>
       </c>
       <c r="Y31" t="n">
-        <v>582.4556301603523</v>
+        <v>498.0435958578654</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1636.197105992187</v>
+        <v>2008.589116211927</v>
       </c>
       <c r="C32" t="n">
-        <v>1267.234589051775</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D32" t="n">
-        <v>908.9688904450247</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E32" t="n">
-        <v>523.1806378467804</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F32" t="n">
-        <v>198.3324414098951</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G32" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H32" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I32" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J32" t="n">
-        <v>231.1641949821404</v>
+        <v>231.1641949821406</v>
       </c>
       <c r="K32" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726755</v>
       </c>
       <c r="L32" t="n">
-        <v>1104.574328908086</v>
+        <v>1104.574328908085</v>
       </c>
       <c r="M32" t="n">
         <v>1685.237002375317</v>
@@ -6718,34 +6718,34 @@
         <v>2758.834606696548</v>
       </c>
       <c r="P32" t="n">
-        <v>3146.337816775583</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q32" t="n">
-        <v>3360.114829815676</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="R32" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S32" t="n">
-        <v>3197.139540515746</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="T32" t="n">
-        <v>2981.04102810917</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="U32" t="n">
-        <v>2727.325591660959</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="V32" t="n">
-        <v>2396.262704317388</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="W32" t="n">
-        <v>2396.262704317388</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="X32" t="n">
-        <v>2022.796946056309</v>
+        <v>2785.328288251861</v>
       </c>
       <c r="Y32" t="n">
-        <v>2022.796946056309</v>
+        <v>2395.188956276049</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I33" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J33" t="n">
-        <v>67.20229659631352</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K33" t="n">
-        <v>371.5093956067678</v>
+        <v>475.4705993509099</v>
       </c>
       <c r="L33" t="n">
-        <v>842.0922403416541</v>
+        <v>946.0534440857964</v>
       </c>
       <c r="M33" t="n">
-        <v>1443.219445828731</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N33" t="n">
-        <v>1601.414762522564</v>
+        <v>1552.620657808585</v>
       </c>
       <c r="O33" t="n">
-        <v>2065.042367504972</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P33" t="n">
         <v>2459.30289775485</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>772.9135335226305</v>
+        <v>382.1433809756588</v>
       </c>
       <c r="C34" t="n">
-        <v>603.9773505947236</v>
+        <v>369.5300330854767</v>
       </c>
       <c r="D34" t="n">
-        <v>453.8607111823878</v>
+        <v>369.5300330854767</v>
       </c>
       <c r="E34" t="n">
-        <v>305.9476175999947</v>
+        <v>369.5300330854767</v>
       </c>
       <c r="F34" t="n">
-        <v>235.942215269654</v>
+        <v>222.6400855875664</v>
       </c>
       <c r="G34" t="n">
-        <v>67.20229659631352</v>
+        <v>222.6400855875664</v>
       </c>
       <c r="H34" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I34" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J34" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K34" t="n">
         <v>153.0971541490671</v>
       </c>
       <c r="L34" t="n">
-        <v>318.5394338551381</v>
+        <v>318.5394338551382</v>
       </c>
       <c r="M34" t="n">
-        <v>503.3642441804034</v>
+        <v>503.3642441804035</v>
       </c>
       <c r="N34" t="n">
-        <v>689.2289500417503</v>
+        <v>689.2289500417505</v>
       </c>
       <c r="O34" t="n">
-        <v>844.8887934645957</v>
+        <v>844.888793464596</v>
       </c>
       <c r="P34" t="n">
-        <v>954.5619983528702</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="Q34" t="n">
-        <v>954.5619983528702</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="R34" t="n">
-        <v>954.5619983528702</v>
+        <v>818.100561022197</v>
       </c>
       <c r="S34" t="n">
-        <v>954.5619983528702</v>
+        <v>608.3411651569323</v>
       </c>
       <c r="T34" t="n">
-        <v>954.5619983528702</v>
+        <v>382.1433809756588</v>
       </c>
       <c r="U34" t="n">
-        <v>954.5619983528702</v>
+        <v>382.1433809756588</v>
       </c>
       <c r="V34" t="n">
-        <v>954.5619983528702</v>
+        <v>382.1433809756588</v>
       </c>
       <c r="W34" t="n">
-        <v>954.5619983528702</v>
+        <v>382.1433809756588</v>
       </c>
       <c r="X34" t="n">
-        <v>954.5619983528702</v>
+        <v>382.1433809756588</v>
       </c>
       <c r="Y34" t="n">
-        <v>954.5619983528702</v>
+        <v>382.1433809756588</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2209.909899514662</v>
+        <v>2008.589116211927</v>
       </c>
       <c r="C35" t="n">
-        <v>1840.947382574251</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D35" t="n">
-        <v>1482.6816839675</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E35" t="n">
-        <v>1096.893431369256</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F35" t="n">
-        <v>685.9075265796484</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G35" t="n">
-        <v>268.5230798990486</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H35" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I35" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J35" t="n">
         <v>231.1641949821403</v>
@@ -6943,10 +6943,10 @@
         <v>597.6453821726751</v>
       </c>
       <c r="L35" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M35" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375318</v>
       </c>
       <c r="N35" t="n">
         <v>2260.663407417571</v>
@@ -6955,34 +6955,34 @@
         <v>2758.834606696548</v>
       </c>
       <c r="P35" t="n">
-        <v>3146.337816775583</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q35" t="n">
-        <v>3360.114829815676</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="R35" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S35" t="n">
-        <v>3360.114829815676</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="T35" t="n">
-        <v>3360.114829815676</v>
+        <v>2962.405650514959</v>
       </c>
       <c r="U35" t="n">
-        <v>3360.114829815676</v>
+        <v>2962.405650514959</v>
       </c>
       <c r="V35" t="n">
-        <v>3360.114829815676</v>
+        <v>2962.405650514959</v>
       </c>
       <c r="W35" t="n">
-        <v>3360.114829815676</v>
+        <v>2962.405650514959</v>
       </c>
       <c r="X35" t="n">
-        <v>2986.649071554596</v>
+        <v>2785.328288251861</v>
       </c>
       <c r="Y35" t="n">
-        <v>2596.509739578784</v>
+        <v>2395.188956276049</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I36" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J36" t="n">
-        <v>67.20229659631352</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K36" t="n">
-        <v>109.688810964315</v>
+        <v>475.4705993509099</v>
       </c>
       <c r="L36" t="n">
-        <v>526.7256998860481</v>
+        <v>946.0534440857964</v>
       </c>
       <c r="M36" t="n">
-        <v>1127.852905373125</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.597172667076</v>
+        <v>1552.620657808585</v>
       </c>
       <c r="O36" t="n">
-        <v>2273.018882363463</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P36" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q36" t="n">
         <v>2670.157851783212</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3099.619242132154</v>
+        <v>518.6048183063324</v>
       </c>
       <c r="C37" t="n">
-        <v>3099.619242132154</v>
+        <v>518.6048183063324</v>
       </c>
       <c r="D37" t="n">
-        <v>3099.619242132154</v>
+        <v>518.6048183063324</v>
       </c>
       <c r="E37" t="n">
-        <v>3099.619242132154</v>
+        <v>382.8321627675645</v>
       </c>
       <c r="F37" t="n">
-        <v>2952.729294634244</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="G37" t="n">
-        <v>2783.989375960903</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H37" t="n">
-        <v>2628.55158696965</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I37" t="n">
-        <v>2500.038024197261</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J37" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K37" t="n">
-        <v>2558.649985611873</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L37" t="n">
-        <v>2724.092265317944</v>
+        <v>318.5394338551382</v>
       </c>
       <c r="M37" t="n">
-        <v>2908.917075643209</v>
+        <v>503.3642441804035</v>
       </c>
       <c r="N37" t="n">
-        <v>3094.781781504556</v>
+        <v>689.2289500417505</v>
       </c>
       <c r="O37" t="n">
-        <v>3250.441624927401</v>
+        <v>844.888793464596</v>
       </c>
       <c r="P37" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="Q37" t="n">
-        <v>3352.459449851849</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="R37" t="n">
-        <v>3215.998012521175</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="S37" t="n">
-        <v>3099.619242132154</v>
+        <v>744.8026024876059</v>
       </c>
       <c r="T37" t="n">
-        <v>3099.619242132154</v>
+        <v>518.6048183063324</v>
       </c>
       <c r="U37" t="n">
-        <v>3099.619242132154</v>
+        <v>518.6048183063324</v>
       </c>
       <c r="V37" t="n">
-        <v>3099.619242132154</v>
+        <v>518.6048183063324</v>
       </c>
       <c r="W37" t="n">
-        <v>3099.619242132154</v>
+        <v>518.6048183063324</v>
       </c>
       <c r="X37" t="n">
-        <v>3099.619242132154</v>
+        <v>518.6048183063324</v>
       </c>
       <c r="Y37" t="n">
-        <v>3099.619242132154</v>
+        <v>518.6048183063324</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1653.354717071463</v>
+        <v>2008.589116211927</v>
       </c>
       <c r="C38" t="n">
-        <v>1653.354717071463</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D38" t="n">
-        <v>1653.354717071463</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E38" t="n">
-        <v>1347.964127689098</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F38" t="n">
-        <v>936.9782228994906</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G38" t="n">
-        <v>519.5937762188908</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H38" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I38" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J38" t="n">
         <v>231.1641949821403</v>
@@ -7180,10 +7180,10 @@
         <v>597.6453821726751</v>
       </c>
       <c r="L38" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M38" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375318</v>
       </c>
       <c r="N38" t="n">
         <v>2260.663407417571</v>
@@ -7192,34 +7192,34 @@
         <v>2758.834606696548</v>
       </c>
       <c r="P38" t="n">
-        <v>3146.337816775583</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q38" t="n">
-        <v>3360.114829815676</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="R38" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S38" t="n">
-        <v>3197.139540515746</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="T38" t="n">
-        <v>2981.04102810917</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="U38" t="n">
-        <v>2727.325591660959</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="V38" t="n">
-        <v>2396.262704317388</v>
+        <v>3121.423369807243</v>
       </c>
       <c r="W38" t="n">
-        <v>2043.494049047274</v>
+        <v>2768.654714537129</v>
       </c>
       <c r="X38" t="n">
-        <v>2043.494049047274</v>
+        <v>2395.188956276049</v>
       </c>
       <c r="Y38" t="n">
-        <v>1653.354717071463</v>
+        <v>2395.188956276049</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I39" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J39" t="n">
         <v>171.1635003404555</v>
       </c>
       <c r="K39" t="n">
-        <v>215.2982821430956</v>
+        <v>475.4705993509099</v>
       </c>
       <c r="L39" t="n">
-        <v>318.7491850275574</v>
+        <v>946.0534440857964</v>
       </c>
       <c r="M39" t="n">
-        <v>919.8763905146342</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.620657808586</v>
+        <v>1552.620657808585</v>
       </c>
       <c r="O39" t="n">
-        <v>2065.042367504972</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P39" t="n">
         <v>2459.30289775485</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>215.1153901787066</v>
+        <v>391.5762685154733</v>
       </c>
       <c r="C40" t="n">
-        <v>215.1153901787066</v>
+        <v>222.6400855875664</v>
       </c>
       <c r="D40" t="n">
-        <v>215.1153901787066</v>
+        <v>222.6400855875664</v>
       </c>
       <c r="E40" t="n">
-        <v>67.20229659631352</v>
+        <v>222.6400855875664</v>
       </c>
       <c r="F40" t="n">
-        <v>67.20229659631352</v>
+        <v>222.6400855875664</v>
       </c>
       <c r="G40" t="n">
-        <v>67.20229659631352</v>
+        <v>222.6400855875664</v>
       </c>
       <c r="H40" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I40" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J40" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K40" t="n">
         <v>153.0971541490671</v>
       </c>
       <c r="L40" t="n">
-        <v>318.5394338551381</v>
+        <v>318.5394338551382</v>
       </c>
       <c r="M40" t="n">
-        <v>503.3642441804034</v>
+        <v>503.3642441804035</v>
       </c>
       <c r="N40" t="n">
-        <v>689.2289500417503</v>
+        <v>689.2289500417505</v>
       </c>
       <c r="O40" t="n">
-        <v>844.8887934645957</v>
+        <v>844.888793464596</v>
       </c>
       <c r="P40" t="n">
-        <v>954.5619983528702</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="Q40" t="n">
-        <v>954.5619983528702</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="R40" t="n">
-        <v>954.5619983528702</v>
+        <v>818.100561022197</v>
       </c>
       <c r="S40" t="n">
-        <v>954.5619983528702</v>
+        <v>818.100561022197</v>
       </c>
       <c r="T40" t="n">
-        <v>954.5619983528702</v>
+        <v>591.9027768409235</v>
       </c>
       <c r="U40" t="n">
-        <v>954.5619983528702</v>
+        <v>391.5762685154733</v>
       </c>
       <c r="V40" t="n">
-        <v>954.5619983528702</v>
+        <v>391.5762685154733</v>
       </c>
       <c r="W40" t="n">
-        <v>845.5459850504938</v>
+        <v>391.5762685154733</v>
       </c>
       <c r="X40" t="n">
-        <v>617.5564341524764</v>
+        <v>391.5762685154733</v>
       </c>
       <c r="Y40" t="n">
-        <v>396.7638550089463</v>
+        <v>391.5762685154733</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1918.864546231315</v>
+        <v>2028.299232620521</v>
       </c>
       <c r="C41" t="n">
-        <v>1549.902029290904</v>
+        <v>1659.33671568011</v>
       </c>
       <c r="D41" t="n">
-        <v>1191.636330684153</v>
+        <v>1301.071017073359</v>
       </c>
       <c r="E41" t="n">
-        <v>805.848078085909</v>
+        <v>915.2827644751151</v>
       </c>
       <c r="F41" t="n">
-        <v>805.848078085909</v>
+        <v>504.2968596855075</v>
       </c>
       <c r="G41" t="n">
-        <v>388.4636314053092</v>
+        <v>86.91241300490771</v>
       </c>
       <c r="H41" t="n">
-        <v>67.20229659631353</v>
+        <v>86.91241300490771</v>
       </c>
       <c r="I41" t="n">
         <v>67.20229659631353</v>
       </c>
       <c r="J41" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K41" t="n">
-        <v>597.6453821726759</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L41" t="n">
         <v>1104.574328908086</v>
@@ -7432,31 +7432,31 @@
         <v>3146.337816775584</v>
       </c>
       <c r="Q41" t="n">
-        <v>3360.114829815676</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="R41" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S41" t="n">
-        <v>3197.139540515746</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="T41" t="n">
-        <v>3197.139540515746</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="U41" t="n">
-        <v>3197.139540515746</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="V41" t="n">
-        <v>2866.076653172176</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="W41" t="n">
-        <v>2866.076653172176</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="X41" t="n">
-        <v>2492.610894911096</v>
+        <v>2805.038404660455</v>
       </c>
       <c r="Y41" t="n">
-        <v>2102.471562935284</v>
+        <v>2414.899072684643</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G42" t="n">
-        <v>221.0211629876735</v>
+        <v>221.0211629876734</v>
       </c>
       <c r="H42" t="n">
         <v>118.5721901641821</v>
@@ -7490,25 +7490,25 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J42" t="n">
-        <v>67.20229659631353</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K42" t="n">
-        <v>371.4209961046996</v>
+        <v>475.4705993509099</v>
       </c>
       <c r="L42" t="n">
-        <v>842.0038408395859</v>
+        <v>946.0534440857964</v>
       </c>
       <c r="M42" t="n">
-        <v>1443.131046326663</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N42" t="n">
-        <v>2075.875313620614</v>
+        <v>1552.620657808585</v>
       </c>
       <c r="O42" t="n">
-        <v>2588.297023317</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P42" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q42" t="n">
         <v>2670.157851783212</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>744.8026024876056</v>
+        <v>473.6797259657102</v>
       </c>
       <c r="C43" t="n">
-        <v>744.8026024876056</v>
+        <v>473.6797259657102</v>
       </c>
       <c r="D43" t="n">
-        <v>686.1830453412103</v>
+        <v>473.6797259657102</v>
       </c>
       <c r="E43" t="n">
-        <v>538.2699517588172</v>
+        <v>473.6797259657102</v>
       </c>
       <c r="F43" t="n">
-        <v>391.3800042609069</v>
+        <v>473.6797259657102</v>
       </c>
       <c r="G43" t="n">
-        <v>222.6400855875664</v>
+        <v>304.9398072923697</v>
       </c>
       <c r="H43" t="n">
-        <v>67.20229659631353</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="I43" t="n">
         <v>67.20229659631353</v>
@@ -7575,46 +7575,46 @@
         <v>153.0971541490671</v>
       </c>
       <c r="L43" t="n">
-        <v>318.5394338551381</v>
+        <v>318.5394338551382</v>
       </c>
       <c r="M43" t="n">
-        <v>503.3642441804034</v>
+        <v>503.3642441804035</v>
       </c>
       <c r="N43" t="n">
-        <v>689.2289500417503</v>
+        <v>689.2289500417505</v>
       </c>
       <c r="O43" t="n">
-        <v>844.8887934645957</v>
+        <v>844.888793464596</v>
       </c>
       <c r="P43" t="n">
-        <v>954.5619983528702</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="Q43" t="n">
-        <v>954.5619983528702</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="R43" t="n">
-        <v>954.5619983528702</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="S43" t="n">
-        <v>744.8026024876056</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="T43" t="n">
-        <v>744.8026024876056</v>
+        <v>728.364214171597</v>
       </c>
       <c r="U43" t="n">
-        <v>744.8026024876056</v>
+        <v>728.364214171597</v>
       </c>
       <c r="V43" t="n">
-        <v>744.8026024876056</v>
+        <v>473.6797259657102</v>
       </c>
       <c r="W43" t="n">
-        <v>744.8026024876056</v>
+        <v>473.6797259657102</v>
       </c>
       <c r="X43" t="n">
-        <v>744.8026024876056</v>
+        <v>473.6797259657102</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.8026024876056</v>
+        <v>473.6797259657102</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2191.274521920451</v>
+        <v>2008.589116211927</v>
       </c>
       <c r="C44" t="n">
-        <v>1822.312004980039</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D44" t="n">
-        <v>1464.046306373289</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E44" t="n">
-        <v>1347.964127689098</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F44" t="n">
-        <v>936.9782228994906</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G44" t="n">
-        <v>519.5937762188908</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="H44" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="I44" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="J44" t="n">
         <v>231.164194982141</v>
@@ -7654,46 +7654,46 @@
         <v>597.6453821726759</v>
       </c>
       <c r="L44" t="n">
-        <v>1104.574328908086</v>
+        <v>1104.574328908087</v>
       </c>
       <c r="M44" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375319</v>
       </c>
       <c r="N44" t="n">
-        <v>2260.663407417572</v>
+        <v>2260.663407417573</v>
       </c>
       <c r="O44" t="n">
-        <v>2758.834606696548</v>
+        <v>2758.834606696549</v>
       </c>
       <c r="P44" t="n">
-        <v>3146.337816775584</v>
+        <v>3146.337816775585</v>
       </c>
       <c r="Q44" t="n">
-        <v>3360.114829815676</v>
+        <v>3360.114829815678</v>
       </c>
       <c r="R44" t="n">
-        <v>3341.479452221464</v>
+        <v>3341.479452221466</v>
       </c>
       <c r="S44" t="n">
-        <v>3341.479452221464</v>
+        <v>3178.504162921536</v>
       </c>
       <c r="T44" t="n">
-        <v>3341.479452221464</v>
+        <v>3178.504162921536</v>
       </c>
       <c r="U44" t="n">
-        <v>3341.479452221464</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="V44" t="n">
-        <v>3341.479452221464</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="W44" t="n">
-        <v>3341.479452221464</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="X44" t="n">
-        <v>2968.013693960384</v>
+        <v>2785.328288251861</v>
       </c>
       <c r="Y44" t="n">
-        <v>2577.874361984573</v>
+        <v>2395.188956276049</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G45" t="n">
-        <v>221.0211629876735</v>
+        <v>221.0211629876734</v>
       </c>
       <c r="H45" t="n">
         <v>118.5721901641821</v>
       </c>
       <c r="I45" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="J45" t="n">
-        <v>67.20229659631353</v>
+        <v>171.1635003404556</v>
       </c>
       <c r="K45" t="n">
-        <v>109.688810964315</v>
+        <v>475.47059935091</v>
       </c>
       <c r="L45" t="n">
-        <v>580.2716556992013</v>
+        <v>946.0534440857964</v>
       </c>
       <c r="M45" t="n">
-        <v>1181.398861186278</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.14312848023</v>
+        <v>1552.620657808585</v>
       </c>
       <c r="O45" t="n">
-        <v>2326.564838176616</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P45" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q45" t="n">
         <v>2670.157851783212</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>584.2473968770961</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="C46" t="n">
-        <v>584.2473968770961</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="D46" t="n">
-        <v>584.2473968770961</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="E46" t="n">
-        <v>436.334303294703</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="F46" t="n">
-        <v>436.334303294703</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="G46" t="n">
-        <v>267.5943846213625</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="H46" t="n">
-        <v>112.1565956301096</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="I46" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="J46" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="K46" t="n">
-        <v>153.0971541490671</v>
+        <v>153.0971541490672</v>
       </c>
       <c r="L46" t="n">
-        <v>318.5394338551381</v>
+        <v>318.5394338551383</v>
       </c>
       <c r="M46" t="n">
-        <v>503.3642441804034</v>
+        <v>503.3642441804036</v>
       </c>
       <c r="N46" t="n">
-        <v>689.2289500417503</v>
+        <v>689.2289500417505</v>
       </c>
       <c r="O46" t="n">
-        <v>844.8887934645957</v>
+        <v>844.888793464596</v>
       </c>
       <c r="P46" t="n">
-        <v>954.5619983528702</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="Q46" t="n">
-        <v>946.9066183890432</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="R46" t="n">
-        <v>810.4451810583696</v>
+        <v>818.100561022197</v>
       </c>
       <c r="S46" t="n">
-        <v>810.4451810583696</v>
+        <v>608.3411651569323</v>
       </c>
       <c r="T46" t="n">
-        <v>584.2473968770961</v>
+        <v>490.6267034755409</v>
       </c>
       <c r="U46" t="n">
-        <v>584.2473968770961</v>
+        <v>490.6267034755409</v>
       </c>
       <c r="V46" t="n">
-        <v>584.2473968770961</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="W46" t="n">
-        <v>584.2473968770961</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="X46" t="n">
-        <v>584.2473968770961</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="Y46" t="n">
-        <v>584.2473968770961</v>
+        <v>235.9422152696541</v>
       </c>
     </row>
   </sheetData>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,10 +9491,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O21" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>21.07971842713414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.7730268503983</v>
+        <v>239.5640279048895</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>21.07971842713414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781599</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.7730268503983</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>21.07971842713414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>316.7535212497691</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781599</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>21.07971842713414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781599</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>344.5753448181654</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>21.07971842713414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>316.7535212497691</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781599</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>1.664916600645093</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781599</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>21.07971842713414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.375944586247</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781599</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>21.07971842713414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781596</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>264.3759445862468</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>142.3763010676208</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>12.42908554841733</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23433,13 +23433,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>56.8258083455521</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>276.517010774571</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>313.7691495546103</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>12.42908554841739</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23551,7 +23551,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23700,7 +23700,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23712,10 +23712,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>241.7983569633718</v>
       </c>
       <c r="W16" t="n">
-        <v>89.80115265030452</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>222.2951651006804</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>207.5557257972938</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>19.59084822180881</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23937,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>103.3473385410178</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,19 +23946,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>38.44113549829775</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>172.3301963913376</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>85.66177732315718</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24177,22 +24177,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>96.92615468724685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>324.2433554034473</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>215.8705880017948</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.1782820837292</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>27.0100671767606</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>7.578826164188769</v>
       </c>
       <c r="R25" t="n">
-        <v>65.62991212044463</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S25" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>223.9358063394608</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>216.5607271702576</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>25.93404754852564</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.62344890337538</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>213.9375272825098</v>
@@ -24505,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24624,7 +24624,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J28" t="n">
-        <v>27.01006717676063</v>
+        <v>27.0100671767606</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.578826164188811</v>
+        <v>7.578826164188769</v>
       </c>
       <c r="R28" t="n">
         <v>135.0968229573668</v>
@@ -24657,7 +24657,7 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U28" t="n">
-        <v>172.1520329466732</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>172.1520329466727</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>103.6972968633994</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>307.2317462647482</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,28 +24840,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.0525194866071</v>
       </c>
       <c r="H31" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>106.4339508564365</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>27.0100671767606</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,28 +24882,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>7.578826164188769</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S31" t="n">
         <v>207.661801906612</v>
       </c>
       <c r="T31" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>24.12023119323368</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>85.27633126919494</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>318.0487214609057</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>231.6652668392213</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>154.7596066873475</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>76.11569971589398</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H34" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>127.2284271446648</v>
       </c>
       <c r="J34" t="n">
-        <v>27.01006717676063</v>
+        <v>27.0100671767606</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.578826164188811</v>
+        <v>7.578826164188769</v>
       </c>
       <c r="R34" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2678406362081</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>248.5599893566437</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.1782820837292</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>194.4245120380019</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>12.01903366318894</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,13 +25329,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>27.0100671767606</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>7.578826164188769</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S37" t="n">
-        <v>92.44681922148109</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2678406362081</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>79.59368658372102</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>271.2422732869865</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,13 +25566,13 @@
         <v>167.0525194866071</v>
       </c>
       <c r="H40" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>127.2284271446648</v>
       </c>
       <c r="J40" t="n">
-        <v>27.01006717676063</v>
+        <v>27.0100671767606</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.578826164188811</v>
+        <v>7.578826164188769</v>
       </c>
       <c r="R40" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>207.661801906612</v>
       </c>
       <c r="T40" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2678406362081</v>
+        <v>87.94459739401242</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>178.5971451672383</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>200.9628951265517</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I41" t="n">
-        <v>129.8188433654458</v>
+        <v>110.3058281209375</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25791,25 +25791,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>90.58211144328109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>45.75170265690956</v>
       </c>
       <c r="I43" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>27.01006717676063</v>
+        <v>27.0100671767606</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.578826164188811</v>
+        <v>7.578826164188769</v>
       </c>
       <c r="R43" t="n">
         <v>135.0968229573668</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T43" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>267.0090131749132</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>213.9375272825098</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1782820837292</v>
+        <v>231.6652668392199</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,13 +26040,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I46" t="n">
-        <v>82.72367110120669</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J46" t="n">
-        <v>27.01006717676063</v>
+        <v>27.01006717676059</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,22 +26067,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>7.578826164188754</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>107.3984892748833</v>
       </c>
       <c r="U46" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673908.9125715443</v>
+        <v>673908.9125715444</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673908.9125715444</v>
+        <v>673908.9125715445</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673908.9125715444</v>
+        <v>673908.9125715445</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>747265.2022302025</v>
+        <v>747265.2022302027</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>747265.2022302024</v>
+        <v>747265.2022302025</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>747265.2022302026</v>
+        <v>747265.2022302025</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>747265.2022302025</v>
+        <v>747265.2022302026</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>747265.2022302026</v>
+        <v>747265.2022302025</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>747265.2022302026</v>
+        <v>747265.2022302025</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>747265.2022302026</v>
+        <v>747265.2022302025</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>747265.2022302025</v>
+        <v>747265.2022302027</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>346983.132018909</v>
+        <v>346983.1320189093</v>
       </c>
       <c r="F2" t="n">
         <v>346983.132018909</v>
@@ -26334,28 +26334,28 @@
         <v>346983.132018909</v>
       </c>
       <c r="I2" t="n">
-        <v>385540.3564336979</v>
+        <v>385540.356433698</v>
       </c>
       <c r="J2" t="n">
         <v>385540.3564336979</v>
       </c>
       <c r="K2" t="n">
+        <v>385540.3564336981</v>
+      </c>
+      <c r="L2" t="n">
         <v>385540.356433698</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>385540.3564336979</v>
       </c>
-      <c r="M2" t="n">
-        <v>385540.356433698</v>
-      </c>
       <c r="N2" t="n">
-        <v>385540.3564336979</v>
+        <v>385540.3564336981</v>
       </c>
       <c r="O2" t="n">
         <v>385540.356433698</v>
       </c>
       <c r="P2" t="n">
-        <v>385540.356433698</v>
+        <v>385540.3564336981</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151472.5856033438</v>
+        <v>151472.5856033441</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,13 +26426,13 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="F4" t="n">
         <v>9371.018034361485</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>9371.018034361483</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9371.018034361485</v>
       </c>
       <c r="H4" t="n">
         <v>9371.018034361485</v>
@@ -26441,7 +26441,7 @@
         <v>8909.485408078566</v>
       </c>
       <c r="J4" t="n">
-        <v>8909.485408078568</v>
+        <v>8909.485408078566</v>
       </c>
       <c r="K4" t="n">
         <v>8909.485408078566</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26490,28 +26490,28 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>62418.87211854676</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="J5" t="n">
-        <v>62418.87211854676</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="K5" t="n">
-        <v>62418.87211854676</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="L5" t="n">
-        <v>62418.87211854676</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="M5" t="n">
-        <v>62418.87211854676</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="N5" t="n">
-        <v>62418.87211854676</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="O5" t="n">
         <v>62418.87211854677</v>
       </c>
       <c r="P5" t="n">
-        <v>62418.87211854677</v>
+        <v>62418.87211854679</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328118.9440753051</v>
+        <v>-328118.9440753052</v>
       </c>
       <c r="C6" t="n">
-        <v>261848.9351392395</v>
+        <v>261848.9351392394</v>
       </c>
       <c r="D6" t="n">
         <v>261848.9351392396</v>
       </c>
       <c r="E6" t="n">
-        <v>288380.635921138</v>
+        <v>282312.2221753192</v>
       </c>
       <c r="F6" t="n">
-        <v>288380.635921138</v>
+        <v>282312.2221753189</v>
       </c>
       <c r="G6" t="n">
-        <v>288380.635921138</v>
+        <v>282312.2221753189</v>
       </c>
       <c r="H6" t="n">
-        <v>288380.635921138</v>
+        <v>282312.2221753189</v>
       </c>
       <c r="I6" t="n">
-        <v>162739.4133037287</v>
+        <v>158277.5505751922</v>
       </c>
       <c r="J6" t="n">
-        <v>137788.7797144796</v>
+        <v>133326.9169859433</v>
       </c>
       <c r="K6" t="n">
-        <v>314211.9989070726</v>
+        <v>309750.1361785364</v>
       </c>
       <c r="L6" t="n">
-        <v>314211.9989070726</v>
+        <v>309750.1361785362</v>
       </c>
       <c r="M6" t="n">
-        <v>314211.9989070727</v>
+        <v>309750.1361785362</v>
       </c>
       <c r="N6" t="n">
-        <v>314211.9989070725</v>
+        <v>309750.1361785363</v>
       </c>
       <c r="O6" t="n">
-        <v>314211.9989070727</v>
+        <v>309750.1361785364</v>
       </c>
       <c r="P6" t="n">
-        <v>314211.9989070727</v>
+        <v>309750.1361785364</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26758,28 +26758,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>520.4186562086462</v>
+        <v>520.4186562086464</v>
       </c>
       <c r="J3" t="n">
-        <v>520.4186562086462</v>
+        <v>520.4186562086464</v>
       </c>
       <c r="K3" t="n">
-        <v>520.4186562086462</v>
+        <v>520.4186562086464</v>
       </c>
       <c r="L3" t="n">
-        <v>520.4186562086462</v>
+        <v>520.4186562086464</v>
       </c>
       <c r="M3" t="n">
-        <v>520.4186562086462</v>
+        <v>520.4186562086464</v>
       </c>
       <c r="N3" t="n">
-        <v>520.4186562086462</v>
+        <v>520.4186562086464</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4186562086462</v>
+        <v>520.4186562086464</v>
       </c>
       <c r="P3" t="n">
-        <v>520.4186562086462</v>
+        <v>520.4186562086466</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26810,28 +26810,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>840.028707453919</v>
+        <v>840.0287074539192</v>
       </c>
       <c r="J4" t="n">
-        <v>840.028707453919</v>
+        <v>840.0287074539192</v>
       </c>
       <c r="K4" t="n">
-        <v>840.028707453919</v>
+        <v>840.0287074539192</v>
       </c>
       <c r="L4" t="n">
-        <v>840.028707453919</v>
+        <v>840.0287074539192</v>
       </c>
       <c r="M4" t="n">
-        <v>840.028707453919</v>
+        <v>840.0287074539192</v>
       </c>
       <c r="N4" t="n">
-        <v>840.028707453919</v>
+        <v>840.0287074539192</v>
       </c>
       <c r="O4" t="n">
-        <v>840.0287074539191</v>
+        <v>840.0287074539192</v>
       </c>
       <c r="P4" t="n">
-        <v>840.0287074539191</v>
+        <v>840.0287074539194</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142.6749919915595</v>
+        <v>142.6749919915598</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>165.7414346993634</v>
+        <v>165.7414346993636</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>266.2568172696846</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>157.5940952031544</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>131.8370722556801</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>16.63754732114094</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>254.4421274914637</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>135.3257377546725</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>71.94894493685993</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>179.6203287225237</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>81.8920519280548</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>359.7411614872965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>19.88405377167439</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>63.13204062090043</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,7 +31047,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31056,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,40 +31120,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
@@ -31162,7 +31162,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32703,46 +32703,46 @@
         <v>2.09213530134129</v>
       </c>
       <c r="H23" t="n">
-        <v>21.42608065486149</v>
+        <v>21.4260806548615</v>
       </c>
       <c r="I23" t="n">
-        <v>80.65704620496015</v>
+        <v>80.65704620496018</v>
       </c>
       <c r="J23" t="n">
         <v>177.5673685322155</v>
       </c>
       <c r="K23" t="n">
-        <v>266.1274558379923</v>
+        <v>266.1274558379924</v>
       </c>
       <c r="L23" t="n">
-        <v>330.1546415664159</v>
+        <v>330.154641566416</v>
       </c>
       <c r="M23" t="n">
-        <v>367.360652731644</v>
+        <v>367.3606527316442</v>
       </c>
       <c r="N23" t="n">
-        <v>373.30493215658</v>
+        <v>373.3049321565802</v>
       </c>
       <c r="O23" t="n">
-        <v>352.5012617538675</v>
+        <v>352.5012617538677</v>
       </c>
       <c r="P23" t="n">
-        <v>300.8516715020044</v>
+        <v>300.8516715020045</v>
       </c>
       <c r="Q23" t="n">
-        <v>225.9270760227193</v>
+        <v>225.9270760227195</v>
       </c>
       <c r="R23" t="n">
-        <v>131.4200941228799</v>
+        <v>131.42009412288</v>
       </c>
       <c r="S23" t="n">
-        <v>47.67453317931469</v>
+        <v>47.67453317931471</v>
       </c>
       <c r="T23" t="n">
-        <v>9.158322281621501</v>
+        <v>9.158322281621505</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1673708241073031</v>
+        <v>0.1673708241073032</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H24" t="n">
-        <v>10.81096114123999</v>
+        <v>10.81096114124</v>
       </c>
       <c r="I24" t="n">
-        <v>38.54043821922522</v>
+        <v>38.54043821922524</v>
       </c>
       <c r="J24" t="n">
         <v>105.7579082395326</v>
       </c>
       <c r="K24" t="n">
-        <v>180.7571100531484</v>
+        <v>180.7571100531485</v>
       </c>
       <c r="L24" t="n">
-        <v>243.0502412793305</v>
+        <v>243.0502412793306</v>
       </c>
       <c r="M24" t="n">
-        <v>283.6281676337122</v>
+        <v>283.6281676337123</v>
       </c>
       <c r="N24" t="n">
-        <v>291.1349612690237</v>
+        <v>291.1349612690238</v>
       </c>
       <c r="O24" t="n">
-        <v>266.331611729721</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P24" t="n">
-        <v>213.7545986227551</v>
+        <v>213.7545986227552</v>
       </c>
       <c r="Q24" t="n">
-        <v>142.889288399023</v>
+        <v>142.8892883990231</v>
       </c>
       <c r="R24" t="n">
-        <v>69.50043865367546</v>
+        <v>69.50043865367549</v>
       </c>
       <c r="S24" t="n">
-        <v>20.79219819852467</v>
+        <v>20.79219819852468</v>
       </c>
       <c r="T24" t="n">
-        <v>4.511931557129676</v>
+        <v>4.511931557129678</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0736441494634877</v>
+        <v>0.07364414946348774</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.938459871851657</v>
+        <v>0.9384598718516574</v>
       </c>
       <c r="H25" t="n">
-        <v>8.343761406099285</v>
+        <v>8.343761406099288</v>
       </c>
       <c r="I25" t="n">
-        <v>28.22204778259347</v>
+        <v>28.22204778259349</v>
       </c>
       <c r="J25" t="n">
-        <v>66.34911293991215</v>
+        <v>66.34911293991217</v>
       </c>
       <c r="K25" t="n">
         <v>109.0319742024016</v>
       </c>
       <c r="L25" t="n">
-        <v>139.5233885842</v>
+        <v>139.5233885842001</v>
       </c>
       <c r="M25" t="n">
         <v>147.1078506394375</v>
       </c>
       <c r="N25" t="n">
-        <v>143.609954753445</v>
+        <v>143.6099547534451</v>
       </c>
       <c r="O25" t="n">
-        <v>132.6470371595415</v>
+        <v>132.6470371595416</v>
       </c>
       <c r="P25" t="n">
-        <v>113.5024557737676</v>
+        <v>113.5024557737677</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.58321708750557</v>
+        <v>78.58321708750562</v>
       </c>
       <c r="R25" t="n">
-        <v>42.19656841980267</v>
+        <v>42.19656841980269</v>
       </c>
       <c r="S25" t="n">
-        <v>16.35479613036023</v>
+        <v>16.35479613036024</v>
       </c>
       <c r="T25" t="n">
-        <v>4.009783088820715</v>
+        <v>4.009783088820717</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05118872028281771</v>
+        <v>0.05118872028281773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,46 +32940,46 @@
         <v>2.09213530134129</v>
       </c>
       <c r="H26" t="n">
-        <v>21.42608065486149</v>
+        <v>21.4260806548615</v>
       </c>
       <c r="I26" t="n">
-        <v>80.65704620496015</v>
+        <v>80.65704620496018</v>
       </c>
       <c r="J26" t="n">
         <v>177.5673685322155</v>
       </c>
       <c r="K26" t="n">
-        <v>266.1274558379923</v>
+        <v>266.1274558379924</v>
       </c>
       <c r="L26" t="n">
-        <v>330.1546415664159</v>
+        <v>330.154641566416</v>
       </c>
       <c r="M26" t="n">
-        <v>367.360652731644</v>
+        <v>367.3606527316442</v>
       </c>
       <c r="N26" t="n">
-        <v>373.30493215658</v>
+        <v>373.3049321565802</v>
       </c>
       <c r="O26" t="n">
-        <v>352.5012617538675</v>
+        <v>352.5012617538677</v>
       </c>
       <c r="P26" t="n">
-        <v>300.8516715020044</v>
+        <v>300.8516715020045</v>
       </c>
       <c r="Q26" t="n">
-        <v>225.9270760227193</v>
+        <v>225.9270760227195</v>
       </c>
       <c r="R26" t="n">
-        <v>131.4200941228799</v>
+        <v>131.42009412288</v>
       </c>
       <c r="S26" t="n">
-        <v>47.67453317931469</v>
+        <v>47.67453317931471</v>
       </c>
       <c r="T26" t="n">
-        <v>9.158322281621501</v>
+        <v>9.158322281621505</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1673708241073031</v>
+        <v>0.1673708241073032</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H27" t="n">
-        <v>10.81096114123999</v>
+        <v>10.81096114124</v>
       </c>
       <c r="I27" t="n">
-        <v>38.54043821922522</v>
+        <v>38.54043821922524</v>
       </c>
       <c r="J27" t="n">
         <v>105.7579082395326</v>
       </c>
       <c r="K27" t="n">
-        <v>180.7571100531484</v>
+        <v>180.7571100531485</v>
       </c>
       <c r="L27" t="n">
-        <v>243.0502412793305</v>
+        <v>243.0502412793306</v>
       </c>
       <c r="M27" t="n">
-        <v>283.6281676337122</v>
+        <v>283.6281676337123</v>
       </c>
       <c r="N27" t="n">
-        <v>291.1349612690237</v>
+        <v>291.1349612690238</v>
       </c>
       <c r="O27" t="n">
-        <v>266.331611729721</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P27" t="n">
-        <v>213.7545986227551</v>
+        <v>213.7545986227552</v>
       </c>
       <c r="Q27" t="n">
-        <v>142.889288399023</v>
+        <v>142.8892883990231</v>
       </c>
       <c r="R27" t="n">
-        <v>69.50043865367546</v>
+        <v>69.50043865367549</v>
       </c>
       <c r="S27" t="n">
-        <v>20.79219819852467</v>
+        <v>20.79219819852468</v>
       </c>
       <c r="T27" t="n">
-        <v>4.511931557129676</v>
+        <v>4.511931557129678</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0736441494634877</v>
+        <v>0.07364414946348774</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.938459871851657</v>
+        <v>0.9384598718516574</v>
       </c>
       <c r="H28" t="n">
-        <v>8.343761406099285</v>
+        <v>8.343761406099288</v>
       </c>
       <c r="I28" t="n">
-        <v>28.22204778259347</v>
+        <v>28.22204778259349</v>
       </c>
       <c r="J28" t="n">
-        <v>66.34911293991215</v>
+        <v>66.34911293991217</v>
       </c>
       <c r="K28" t="n">
         <v>109.0319742024016</v>
       </c>
       <c r="L28" t="n">
-        <v>139.5233885842</v>
+        <v>139.5233885842001</v>
       </c>
       <c r="M28" t="n">
         <v>147.1078506394375</v>
       </c>
       <c r="N28" t="n">
-        <v>143.609954753445</v>
+        <v>143.6099547534451</v>
       </c>
       <c r="O28" t="n">
-        <v>132.6470371595415</v>
+        <v>132.6470371595416</v>
       </c>
       <c r="P28" t="n">
-        <v>113.5024557737676</v>
+        <v>113.5024557737677</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.58321708750557</v>
+        <v>78.58321708750562</v>
       </c>
       <c r="R28" t="n">
-        <v>42.19656841980267</v>
+        <v>42.19656841980269</v>
       </c>
       <c r="S28" t="n">
-        <v>16.35479613036023</v>
+        <v>16.35479613036024</v>
       </c>
       <c r="T28" t="n">
-        <v>4.009783088820715</v>
+        <v>4.009783088820717</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05118872028281771</v>
+        <v>0.05118872028281773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>2.09213530134129</v>
       </c>
       <c r="H29" t="n">
-        <v>21.42608065486149</v>
+        <v>21.4260806548615</v>
       </c>
       <c r="I29" t="n">
-        <v>80.65704620496015</v>
+        <v>80.65704620496018</v>
       </c>
       <c r="J29" t="n">
         <v>177.5673685322155</v>
       </c>
       <c r="K29" t="n">
-        <v>266.1274558379923</v>
+        <v>266.1274558379924</v>
       </c>
       <c r="L29" t="n">
-        <v>330.1546415664159</v>
+        <v>330.154641566416</v>
       </c>
       <c r="M29" t="n">
-        <v>367.360652731644</v>
+        <v>367.3606527316442</v>
       </c>
       <c r="N29" t="n">
-        <v>373.30493215658</v>
+        <v>373.3049321565802</v>
       </c>
       <c r="O29" t="n">
-        <v>352.5012617538675</v>
+        <v>352.5012617538677</v>
       </c>
       <c r="P29" t="n">
-        <v>300.8516715020044</v>
+        <v>300.8516715020045</v>
       </c>
       <c r="Q29" t="n">
-        <v>225.9270760227193</v>
+        <v>225.9270760227195</v>
       </c>
       <c r="R29" t="n">
-        <v>131.4200941228799</v>
+        <v>131.42009412288</v>
       </c>
       <c r="S29" t="n">
-        <v>47.67453317931469</v>
+        <v>47.67453317931471</v>
       </c>
       <c r="T29" t="n">
-        <v>9.158322281621501</v>
+        <v>9.158322281621505</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1673708241073031</v>
+        <v>0.1673708241073032</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H30" t="n">
-        <v>10.81096114123999</v>
+        <v>10.81096114124</v>
       </c>
       <c r="I30" t="n">
-        <v>38.54043821922522</v>
+        <v>38.54043821922524</v>
       </c>
       <c r="J30" t="n">
         <v>105.7579082395326</v>
       </c>
       <c r="K30" t="n">
-        <v>180.7571100531484</v>
+        <v>180.7571100531485</v>
       </c>
       <c r="L30" t="n">
-        <v>243.0502412793305</v>
+        <v>243.0502412793306</v>
       </c>
       <c r="M30" t="n">
-        <v>283.6281676337122</v>
+        <v>283.6281676337123</v>
       </c>
       <c r="N30" t="n">
-        <v>291.1349612690237</v>
+        <v>291.1349612690238</v>
       </c>
       <c r="O30" t="n">
-        <v>266.331611729721</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P30" t="n">
-        <v>213.7545986227551</v>
+        <v>213.7545986227552</v>
       </c>
       <c r="Q30" t="n">
-        <v>142.889288399023</v>
+        <v>142.8892883990231</v>
       </c>
       <c r="R30" t="n">
-        <v>69.50043865367546</v>
+        <v>69.50043865367549</v>
       </c>
       <c r="S30" t="n">
-        <v>20.79219819852467</v>
+        <v>20.79219819852468</v>
       </c>
       <c r="T30" t="n">
-        <v>4.511931557129676</v>
+        <v>4.511931557129678</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0736441494634877</v>
+        <v>0.07364414946348774</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.938459871851657</v>
+        <v>0.9384598718516574</v>
       </c>
       <c r="H31" t="n">
-        <v>8.343761406099285</v>
+        <v>8.343761406099288</v>
       </c>
       <c r="I31" t="n">
-        <v>28.22204778259347</v>
+        <v>28.22204778259349</v>
       </c>
       <c r="J31" t="n">
-        <v>66.34911293991215</v>
+        <v>66.34911293991217</v>
       </c>
       <c r="K31" t="n">
         <v>109.0319742024016</v>
       </c>
       <c r="L31" t="n">
-        <v>139.5233885842</v>
+        <v>139.5233885842001</v>
       </c>
       <c r="M31" t="n">
         <v>147.1078506394375</v>
       </c>
       <c r="N31" t="n">
-        <v>143.609954753445</v>
+        <v>143.6099547534451</v>
       </c>
       <c r="O31" t="n">
-        <v>132.6470371595415</v>
+        <v>132.6470371595416</v>
       </c>
       <c r="P31" t="n">
-        <v>113.5024557737676</v>
+        <v>113.5024557737677</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.58321708750557</v>
+        <v>78.58321708750562</v>
       </c>
       <c r="R31" t="n">
-        <v>42.19656841980267</v>
+        <v>42.19656841980269</v>
       </c>
       <c r="S31" t="n">
-        <v>16.35479613036023</v>
+        <v>16.35479613036024</v>
       </c>
       <c r="T31" t="n">
-        <v>4.009783088820715</v>
+        <v>4.009783088820717</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05118872028281771</v>
+        <v>0.05118872028281773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>2.09213530134129</v>
       </c>
       <c r="H32" t="n">
-        <v>21.42608065486149</v>
+        <v>21.4260806548615</v>
       </c>
       <c r="I32" t="n">
-        <v>80.65704620496015</v>
+        <v>80.65704620496018</v>
       </c>
       <c r="J32" t="n">
         <v>177.5673685322155</v>
       </c>
       <c r="K32" t="n">
-        <v>266.1274558379923</v>
+        <v>266.1274558379924</v>
       </c>
       <c r="L32" t="n">
-        <v>330.1546415664159</v>
+        <v>330.154641566416</v>
       </c>
       <c r="M32" t="n">
-        <v>367.360652731644</v>
+        <v>367.3606527316442</v>
       </c>
       <c r="N32" t="n">
-        <v>373.30493215658</v>
+        <v>373.3049321565802</v>
       </c>
       <c r="O32" t="n">
-        <v>352.5012617538675</v>
+        <v>352.5012617538677</v>
       </c>
       <c r="P32" t="n">
-        <v>300.8516715020044</v>
+        <v>300.8516715020045</v>
       </c>
       <c r="Q32" t="n">
-        <v>225.9270760227193</v>
+        <v>225.9270760227195</v>
       </c>
       <c r="R32" t="n">
-        <v>131.4200941228799</v>
+        <v>131.42009412288</v>
       </c>
       <c r="S32" t="n">
-        <v>47.67453317931469</v>
+        <v>47.67453317931471</v>
       </c>
       <c r="T32" t="n">
-        <v>9.158322281621501</v>
+        <v>9.158322281621505</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1673708241073031</v>
+        <v>0.1673708241073032</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H33" t="n">
-        <v>10.81096114123999</v>
+        <v>10.81096114124</v>
       </c>
       <c r="I33" t="n">
-        <v>38.54043821922522</v>
+        <v>38.54043821922524</v>
       </c>
       <c r="J33" t="n">
         <v>105.7579082395326</v>
       </c>
       <c r="K33" t="n">
-        <v>180.7571100531484</v>
+        <v>180.7571100531485</v>
       </c>
       <c r="L33" t="n">
-        <v>243.0502412793305</v>
+        <v>243.0502412793306</v>
       </c>
       <c r="M33" t="n">
-        <v>283.6281676337122</v>
+        <v>283.6281676337123</v>
       </c>
       <c r="N33" t="n">
-        <v>291.1349612690237</v>
+        <v>291.1349612690238</v>
       </c>
       <c r="O33" t="n">
-        <v>266.331611729721</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P33" t="n">
-        <v>213.7545986227551</v>
+        <v>213.7545986227552</v>
       </c>
       <c r="Q33" t="n">
-        <v>142.889288399023</v>
+        <v>142.8892883990231</v>
       </c>
       <c r="R33" t="n">
-        <v>69.50043865367546</v>
+        <v>69.50043865367549</v>
       </c>
       <c r="S33" t="n">
-        <v>20.79219819852467</v>
+        <v>20.79219819852468</v>
       </c>
       <c r="T33" t="n">
-        <v>4.511931557129676</v>
+        <v>4.511931557129678</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0736441494634877</v>
+        <v>0.07364414946348774</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.938459871851657</v>
+        <v>0.9384598718516574</v>
       </c>
       <c r="H34" t="n">
-        <v>8.343761406099285</v>
+        <v>8.343761406099288</v>
       </c>
       <c r="I34" t="n">
-        <v>28.22204778259347</v>
+        <v>28.22204778259349</v>
       </c>
       <c r="J34" t="n">
-        <v>66.34911293991215</v>
+        <v>66.34911293991217</v>
       </c>
       <c r="K34" t="n">
         <v>109.0319742024016</v>
       </c>
       <c r="L34" t="n">
-        <v>139.5233885842</v>
+        <v>139.5233885842001</v>
       </c>
       <c r="M34" t="n">
         <v>147.1078506394375</v>
       </c>
       <c r="N34" t="n">
-        <v>143.609954753445</v>
+        <v>143.6099547534451</v>
       </c>
       <c r="O34" t="n">
-        <v>132.6470371595415</v>
+        <v>132.6470371595416</v>
       </c>
       <c r="P34" t="n">
-        <v>113.5024557737676</v>
+        <v>113.5024557737677</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.58321708750557</v>
+        <v>78.58321708750562</v>
       </c>
       <c r="R34" t="n">
-        <v>42.19656841980267</v>
+        <v>42.19656841980269</v>
       </c>
       <c r="S34" t="n">
-        <v>16.35479613036023</v>
+        <v>16.35479613036024</v>
       </c>
       <c r="T34" t="n">
-        <v>4.009783088820715</v>
+        <v>4.009783088820717</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05118872028281771</v>
+        <v>0.05118872028281773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>2.09213530134129</v>
       </c>
       <c r="H35" t="n">
-        <v>21.42608065486149</v>
+        <v>21.4260806548615</v>
       </c>
       <c r="I35" t="n">
-        <v>80.65704620496015</v>
+        <v>80.65704620496018</v>
       </c>
       <c r="J35" t="n">
         <v>177.5673685322155</v>
       </c>
       <c r="K35" t="n">
-        <v>266.1274558379923</v>
+        <v>266.1274558379924</v>
       </c>
       <c r="L35" t="n">
-        <v>330.1546415664159</v>
+        <v>330.154641566416</v>
       </c>
       <c r="M35" t="n">
-        <v>367.360652731644</v>
+        <v>367.3606527316442</v>
       </c>
       <c r="N35" t="n">
-        <v>373.30493215658</v>
+        <v>373.3049321565802</v>
       </c>
       <c r="O35" t="n">
-        <v>352.5012617538675</v>
+        <v>352.5012617538677</v>
       </c>
       <c r="P35" t="n">
-        <v>300.8516715020044</v>
+        <v>300.8516715020045</v>
       </c>
       <c r="Q35" t="n">
-        <v>225.9270760227193</v>
+        <v>225.9270760227195</v>
       </c>
       <c r="R35" t="n">
-        <v>131.4200941228799</v>
+        <v>131.42009412288</v>
       </c>
       <c r="S35" t="n">
-        <v>47.67453317931469</v>
+        <v>47.67453317931471</v>
       </c>
       <c r="T35" t="n">
-        <v>9.158322281621501</v>
+        <v>9.158322281621505</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1673708241073031</v>
+        <v>0.1673708241073032</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H36" t="n">
-        <v>10.81096114123999</v>
+        <v>10.81096114124</v>
       </c>
       <c r="I36" t="n">
-        <v>38.54043821922522</v>
+        <v>38.54043821922524</v>
       </c>
       <c r="J36" t="n">
         <v>105.7579082395326</v>
       </c>
       <c r="K36" t="n">
-        <v>180.7571100531484</v>
+        <v>180.7571100531485</v>
       </c>
       <c r="L36" t="n">
-        <v>243.0502412793305</v>
+        <v>243.0502412793306</v>
       </c>
       <c r="M36" t="n">
-        <v>283.6281676337122</v>
+        <v>283.6281676337123</v>
       </c>
       <c r="N36" t="n">
-        <v>291.1349612690237</v>
+        <v>291.1349612690238</v>
       </c>
       <c r="O36" t="n">
-        <v>266.331611729721</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P36" t="n">
-        <v>213.7545986227551</v>
+        <v>213.7545986227552</v>
       </c>
       <c r="Q36" t="n">
-        <v>142.889288399023</v>
+        <v>142.8892883990231</v>
       </c>
       <c r="R36" t="n">
-        <v>69.50043865367546</v>
+        <v>69.50043865367549</v>
       </c>
       <c r="S36" t="n">
-        <v>20.79219819852467</v>
+        <v>20.79219819852468</v>
       </c>
       <c r="T36" t="n">
-        <v>4.511931557129676</v>
+        <v>4.511931557129678</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0736441494634877</v>
+        <v>0.07364414946348774</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.938459871851657</v>
+        <v>0.9384598718516574</v>
       </c>
       <c r="H37" t="n">
-        <v>8.343761406099285</v>
+        <v>8.343761406099288</v>
       </c>
       <c r="I37" t="n">
-        <v>28.22204778259347</v>
+        <v>28.22204778259349</v>
       </c>
       <c r="J37" t="n">
-        <v>66.34911293991215</v>
+        <v>66.34911293991217</v>
       </c>
       <c r="K37" t="n">
         <v>109.0319742024016</v>
       </c>
       <c r="L37" t="n">
-        <v>139.5233885842</v>
+        <v>139.5233885842001</v>
       </c>
       <c r="M37" t="n">
         <v>147.1078506394375</v>
       </c>
       <c r="N37" t="n">
-        <v>143.609954753445</v>
+        <v>143.6099547534451</v>
       </c>
       <c r="O37" t="n">
-        <v>132.6470371595415</v>
+        <v>132.6470371595416</v>
       </c>
       <c r="P37" t="n">
-        <v>113.5024557737676</v>
+        <v>113.5024557737677</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.58321708750557</v>
+        <v>78.58321708750562</v>
       </c>
       <c r="R37" t="n">
-        <v>42.19656841980267</v>
+        <v>42.19656841980269</v>
       </c>
       <c r="S37" t="n">
-        <v>16.35479613036023</v>
+        <v>16.35479613036024</v>
       </c>
       <c r="T37" t="n">
-        <v>4.009783088820715</v>
+        <v>4.009783088820717</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05118872028281771</v>
+        <v>0.05118872028281773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>2.09213530134129</v>
       </c>
       <c r="H38" t="n">
-        <v>21.42608065486149</v>
+        <v>21.4260806548615</v>
       </c>
       <c r="I38" t="n">
-        <v>80.65704620496015</v>
+        <v>80.65704620496018</v>
       </c>
       <c r="J38" t="n">
         <v>177.5673685322155</v>
       </c>
       <c r="K38" t="n">
-        <v>266.1274558379923</v>
+        <v>266.1274558379924</v>
       </c>
       <c r="L38" t="n">
-        <v>330.1546415664159</v>
+        <v>330.154641566416</v>
       </c>
       <c r="M38" t="n">
-        <v>367.360652731644</v>
+        <v>367.3606527316442</v>
       </c>
       <c r="N38" t="n">
-        <v>373.30493215658</v>
+        <v>373.3049321565802</v>
       </c>
       <c r="O38" t="n">
-        <v>352.5012617538675</v>
+        <v>352.5012617538677</v>
       </c>
       <c r="P38" t="n">
-        <v>300.8516715020044</v>
+        <v>300.8516715020045</v>
       </c>
       <c r="Q38" t="n">
-        <v>225.9270760227193</v>
+        <v>225.9270760227195</v>
       </c>
       <c r="R38" t="n">
-        <v>131.4200941228799</v>
+        <v>131.42009412288</v>
       </c>
       <c r="S38" t="n">
-        <v>47.67453317931469</v>
+        <v>47.67453317931471</v>
       </c>
       <c r="T38" t="n">
-        <v>9.158322281621501</v>
+        <v>9.158322281621505</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1673708241073031</v>
+        <v>0.1673708241073032</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H39" t="n">
-        <v>10.81096114123999</v>
+        <v>10.81096114124</v>
       </c>
       <c r="I39" t="n">
-        <v>38.54043821922522</v>
+        <v>38.54043821922524</v>
       </c>
       <c r="J39" t="n">
         <v>105.7579082395326</v>
       </c>
       <c r="K39" t="n">
-        <v>180.7571100531484</v>
+        <v>180.7571100531485</v>
       </c>
       <c r="L39" t="n">
-        <v>243.0502412793305</v>
+        <v>243.0502412793306</v>
       </c>
       <c r="M39" t="n">
-        <v>283.6281676337122</v>
+        <v>283.6281676337123</v>
       </c>
       <c r="N39" t="n">
-        <v>291.1349612690237</v>
+        <v>291.1349612690238</v>
       </c>
       <c r="O39" t="n">
-        <v>266.331611729721</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P39" t="n">
-        <v>213.7545986227551</v>
+        <v>213.7545986227552</v>
       </c>
       <c r="Q39" t="n">
-        <v>142.889288399023</v>
+        <v>142.8892883990231</v>
       </c>
       <c r="R39" t="n">
-        <v>69.50043865367546</v>
+        <v>69.50043865367549</v>
       </c>
       <c r="S39" t="n">
-        <v>20.79219819852467</v>
+        <v>20.79219819852468</v>
       </c>
       <c r="T39" t="n">
-        <v>4.511931557129676</v>
+        <v>4.511931557129678</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0736441494634877</v>
+        <v>0.07364414946348774</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.938459871851657</v>
+        <v>0.9384598718516574</v>
       </c>
       <c r="H40" t="n">
-        <v>8.343761406099285</v>
+        <v>8.343761406099288</v>
       </c>
       <c r="I40" t="n">
-        <v>28.22204778259347</v>
+        <v>28.22204778259349</v>
       </c>
       <c r="J40" t="n">
-        <v>66.34911293991215</v>
+        <v>66.34911293991217</v>
       </c>
       <c r="K40" t="n">
         <v>109.0319742024016</v>
       </c>
       <c r="L40" t="n">
-        <v>139.5233885842</v>
+        <v>139.5233885842001</v>
       </c>
       <c r="M40" t="n">
         <v>147.1078506394375</v>
       </c>
       <c r="N40" t="n">
-        <v>143.609954753445</v>
+        <v>143.6099547534451</v>
       </c>
       <c r="O40" t="n">
-        <v>132.6470371595415</v>
+        <v>132.6470371595416</v>
       </c>
       <c r="P40" t="n">
-        <v>113.5024557737676</v>
+        <v>113.5024557737677</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.58321708750557</v>
+        <v>78.58321708750562</v>
       </c>
       <c r="R40" t="n">
-        <v>42.19656841980267</v>
+        <v>42.19656841980269</v>
       </c>
       <c r="S40" t="n">
-        <v>16.35479613036023</v>
+        <v>16.35479613036024</v>
       </c>
       <c r="T40" t="n">
-        <v>4.009783088820715</v>
+        <v>4.009783088820717</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05118872028281771</v>
+        <v>0.05118872028281773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>2.09213530134129</v>
       </c>
       <c r="H41" t="n">
-        <v>21.42608065486149</v>
+        <v>21.4260806548615</v>
       </c>
       <c r="I41" t="n">
-        <v>80.65704620496015</v>
+        <v>80.65704620496018</v>
       </c>
       <c r="J41" t="n">
         <v>177.5673685322155</v>
       </c>
       <c r="K41" t="n">
-        <v>266.1274558379923</v>
+        <v>266.1274558379924</v>
       </c>
       <c r="L41" t="n">
-        <v>330.1546415664159</v>
+        <v>330.154641566416</v>
       </c>
       <c r="M41" t="n">
-        <v>367.360652731644</v>
+        <v>367.3606527316442</v>
       </c>
       <c r="N41" t="n">
-        <v>373.30493215658</v>
+        <v>373.3049321565802</v>
       </c>
       <c r="O41" t="n">
-        <v>352.5012617538675</v>
+        <v>352.5012617538677</v>
       </c>
       <c r="P41" t="n">
-        <v>300.8516715020044</v>
+        <v>300.8516715020045</v>
       </c>
       <c r="Q41" t="n">
-        <v>225.9270760227193</v>
+        <v>225.9270760227195</v>
       </c>
       <c r="R41" t="n">
-        <v>131.4200941228799</v>
+        <v>131.42009412288</v>
       </c>
       <c r="S41" t="n">
-        <v>47.67453317931469</v>
+        <v>47.67453317931471</v>
       </c>
       <c r="T41" t="n">
-        <v>9.158322281621501</v>
+        <v>9.158322281621505</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1673708241073031</v>
+        <v>0.1673708241073032</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H42" t="n">
-        <v>10.81096114123999</v>
+        <v>10.81096114124</v>
       </c>
       <c r="I42" t="n">
-        <v>38.54043821922522</v>
+        <v>38.54043821922524</v>
       </c>
       <c r="J42" t="n">
         <v>105.7579082395326</v>
       </c>
       <c r="K42" t="n">
-        <v>180.7571100531484</v>
+        <v>180.7571100531485</v>
       </c>
       <c r="L42" t="n">
-        <v>243.0502412793305</v>
+        <v>243.0502412793306</v>
       </c>
       <c r="M42" t="n">
-        <v>283.6281676337122</v>
+        <v>283.6281676337123</v>
       </c>
       <c r="N42" t="n">
-        <v>291.1349612690237</v>
+        <v>291.1349612690238</v>
       </c>
       <c r="O42" t="n">
-        <v>266.331611729721</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P42" t="n">
-        <v>213.7545986227551</v>
+        <v>213.7545986227552</v>
       </c>
       <c r="Q42" t="n">
-        <v>142.889288399023</v>
+        <v>142.8892883990231</v>
       </c>
       <c r="R42" t="n">
-        <v>69.50043865367546</v>
+        <v>69.50043865367549</v>
       </c>
       <c r="S42" t="n">
-        <v>20.79219819852467</v>
+        <v>20.79219819852468</v>
       </c>
       <c r="T42" t="n">
-        <v>4.511931557129676</v>
+        <v>4.511931557129678</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0736441494634877</v>
+        <v>0.07364414946348774</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.938459871851657</v>
+        <v>0.9384598718516574</v>
       </c>
       <c r="H43" t="n">
-        <v>8.343761406099285</v>
+        <v>8.343761406099288</v>
       </c>
       <c r="I43" t="n">
-        <v>28.22204778259347</v>
+        <v>28.22204778259349</v>
       </c>
       <c r="J43" t="n">
-        <v>66.34911293991215</v>
+        <v>66.34911293991217</v>
       </c>
       <c r="K43" t="n">
         <v>109.0319742024016</v>
       </c>
       <c r="L43" t="n">
-        <v>139.5233885842</v>
+        <v>139.5233885842001</v>
       </c>
       <c r="M43" t="n">
         <v>147.1078506394375</v>
       </c>
       <c r="N43" t="n">
-        <v>143.609954753445</v>
+        <v>143.6099547534451</v>
       </c>
       <c r="O43" t="n">
-        <v>132.6470371595415</v>
+        <v>132.6470371595416</v>
       </c>
       <c r="P43" t="n">
-        <v>113.5024557737676</v>
+        <v>113.5024557737677</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.58321708750557</v>
+        <v>78.58321708750562</v>
       </c>
       <c r="R43" t="n">
-        <v>42.19656841980267</v>
+        <v>42.19656841980269</v>
       </c>
       <c r="S43" t="n">
-        <v>16.35479613036023</v>
+        <v>16.35479613036024</v>
       </c>
       <c r="T43" t="n">
-        <v>4.009783088820715</v>
+        <v>4.009783088820717</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05118872028281771</v>
+        <v>0.05118872028281773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.09213530134129</v>
+        <v>2.092135301341291</v>
       </c>
       <c r="H44" t="n">
-        <v>21.42608065486149</v>
+        <v>21.4260806548615</v>
       </c>
       <c r="I44" t="n">
-        <v>80.65704620496015</v>
+        <v>80.65704620496021</v>
       </c>
       <c r="J44" t="n">
-        <v>177.5673685322155</v>
+        <v>177.5673685322156</v>
       </c>
       <c r="K44" t="n">
-        <v>266.1274558379923</v>
+        <v>266.1274558379924</v>
       </c>
       <c r="L44" t="n">
-        <v>330.1546415664159</v>
+        <v>330.1546415664161</v>
       </c>
       <c r="M44" t="n">
-        <v>367.360652731644</v>
+        <v>367.3606527316442</v>
       </c>
       <c r="N44" t="n">
-        <v>373.30493215658</v>
+        <v>373.3049321565802</v>
       </c>
       <c r="O44" t="n">
-        <v>352.5012617538675</v>
+        <v>352.5012617538677</v>
       </c>
       <c r="P44" t="n">
-        <v>300.8516715020044</v>
+        <v>300.8516715020046</v>
       </c>
       <c r="Q44" t="n">
-        <v>225.9270760227193</v>
+        <v>225.9270760227195</v>
       </c>
       <c r="R44" t="n">
-        <v>131.4200941228799</v>
+        <v>131.42009412288</v>
       </c>
       <c r="S44" t="n">
-        <v>47.67453317931469</v>
+        <v>47.67453317931472</v>
       </c>
       <c r="T44" t="n">
-        <v>9.158322281621501</v>
+        <v>9.158322281621507</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1673708241073031</v>
+        <v>0.1673708241073033</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.119391071845013</v>
       </c>
       <c r="H45" t="n">
-        <v>10.81096114123999</v>
+        <v>10.81096114124</v>
       </c>
       <c r="I45" t="n">
-        <v>38.54043821922522</v>
+        <v>38.54043821922524</v>
       </c>
       <c r="J45" t="n">
         <v>105.7579082395326</v>
       </c>
       <c r="K45" t="n">
-        <v>180.7571100531484</v>
+        <v>180.7571100531485</v>
       </c>
       <c r="L45" t="n">
-        <v>243.0502412793305</v>
+        <v>243.0502412793307</v>
       </c>
       <c r="M45" t="n">
-        <v>283.6281676337122</v>
+        <v>283.6281676337123</v>
       </c>
       <c r="N45" t="n">
-        <v>291.1349612690237</v>
+        <v>291.1349612690239</v>
       </c>
       <c r="O45" t="n">
-        <v>266.331611729721</v>
+        <v>266.3316117297212</v>
       </c>
       <c r="P45" t="n">
-        <v>213.7545986227551</v>
+        <v>213.7545986227553</v>
       </c>
       <c r="Q45" t="n">
-        <v>142.889288399023</v>
+        <v>142.8892883990231</v>
       </c>
       <c r="R45" t="n">
-        <v>69.50043865367546</v>
+        <v>69.5004386536755</v>
       </c>
       <c r="S45" t="n">
-        <v>20.79219819852467</v>
+        <v>20.79219819852469</v>
       </c>
       <c r="T45" t="n">
-        <v>4.511931557129676</v>
+        <v>4.511931557129679</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0736441494634877</v>
+        <v>0.07364414946348775</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.938459871851657</v>
+        <v>0.9384598718516576</v>
       </c>
       <c r="H46" t="n">
-        <v>8.343761406099285</v>
+        <v>8.34376140609929</v>
       </c>
       <c r="I46" t="n">
-        <v>28.22204778259347</v>
+        <v>28.2220477825935</v>
       </c>
       <c r="J46" t="n">
-        <v>66.34911293991215</v>
+        <v>66.34911293991219</v>
       </c>
       <c r="K46" t="n">
-        <v>109.0319742024016</v>
+        <v>109.0319742024017</v>
       </c>
       <c r="L46" t="n">
-        <v>139.5233885842</v>
+        <v>139.5233885842001</v>
       </c>
       <c r="M46" t="n">
         <v>147.1078506394375</v>
       </c>
       <c r="N46" t="n">
-        <v>143.609954753445</v>
+        <v>143.6099547534451</v>
       </c>
       <c r="O46" t="n">
-        <v>132.6470371595415</v>
+        <v>132.6470371595416</v>
       </c>
       <c r="P46" t="n">
-        <v>113.5024557737676</v>
+        <v>113.5024557737677</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.58321708750557</v>
+        <v>78.58321708750563</v>
       </c>
       <c r="R46" t="n">
-        <v>42.19656841980267</v>
+        <v>42.1965684198027</v>
       </c>
       <c r="S46" t="n">
-        <v>16.35479613036023</v>
+        <v>16.35479613036025</v>
       </c>
       <c r="T46" t="n">
-        <v>4.009783088820715</v>
+        <v>4.009783088820718</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05118872028281771</v>
+        <v>0.05118872028281775</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35497,7 +35497,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338903</v>
@@ -35506,7 +35506,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,10 +36211,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735647</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>165.6180791776029</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K23" t="n">
-        <v>370.1830173641765</v>
+        <v>370.1830173641766</v>
       </c>
       <c r="L23" t="n">
-        <v>512.0494411468791</v>
+        <v>512.0494411468792</v>
       </c>
       <c r="M23" t="n">
-        <v>586.5279529972038</v>
+        <v>586.5279529972039</v>
       </c>
       <c r="N23" t="n">
-        <v>581.2387929719732</v>
+        <v>581.2387929719735</v>
       </c>
       <c r="O23" t="n">
-        <v>503.2032315949261</v>
+        <v>503.2032315949263</v>
       </c>
       <c r="P23" t="n">
-        <v>391.4173839182175</v>
+        <v>391.4173839182176</v>
       </c>
       <c r="Q23" t="n">
-        <v>215.9363768081745</v>
+        <v>215.9363768081747</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K24" t="n">
         <v>307.380908091368</v>
       </c>
       <c r="L24" t="n">
-        <v>475.3362068029155</v>
+        <v>475.3362068029156</v>
       </c>
       <c r="M24" t="n">
-        <v>607.1991974616938</v>
+        <v>607.1991974616939</v>
       </c>
       <c r="N24" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O24" t="n">
-        <v>517.5083941356748</v>
+        <v>363.2993951901663</v>
       </c>
       <c r="P24" t="n">
-        <v>79.78019120842487</v>
+        <v>398.2429598483621</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>86.76248237651873</v>
+        <v>86.76248237651878</v>
       </c>
       <c r="L25" t="n">
-        <v>167.1134138445161</v>
+        <v>167.1134138445162</v>
       </c>
       <c r="M25" t="n">
-        <v>186.691727601278</v>
+        <v>186.6917276012781</v>
       </c>
       <c r="N25" t="n">
-        <v>187.7421271326736</v>
+        <v>187.7421271326737</v>
       </c>
       <c r="O25" t="n">
-        <v>157.2321650735812</v>
+        <v>157.2321650735813</v>
       </c>
       <c r="P25" t="n">
-        <v>110.7810150386611</v>
+        <v>110.7810150386612</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>165.6180791776029</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K26" t="n">
-        <v>370.1830173641765</v>
+        <v>370.1830173641766</v>
       </c>
       <c r="L26" t="n">
-        <v>512.0494411468791</v>
+        <v>512.0494411468792</v>
       </c>
       <c r="M26" t="n">
-        <v>586.5279529972038</v>
+        <v>586.5279529972039</v>
       </c>
       <c r="N26" t="n">
-        <v>581.2387929719732</v>
+        <v>581.2387929719735</v>
       </c>
       <c r="O26" t="n">
-        <v>503.2032315949261</v>
+        <v>503.2032315949263</v>
       </c>
       <c r="P26" t="n">
-        <v>391.4173839182175</v>
+        <v>391.4173839182176</v>
       </c>
       <c r="Q26" t="n">
-        <v>215.9363768081745</v>
+        <v>215.9363768081747</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K27" t="n">
         <v>307.380908091368</v>
       </c>
       <c r="L27" t="n">
-        <v>475.3362068029155</v>
+        <v>475.3362068029156</v>
       </c>
       <c r="M27" t="n">
-        <v>607.1991974616938</v>
+        <v>452.9009060898539</v>
       </c>
       <c r="N27" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O27" t="n">
-        <v>517.5083941356748</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P27" t="n">
-        <v>79.78019120842487</v>
+        <v>398.2429598483621</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>86.76248237651873</v>
+        <v>86.76248237651878</v>
       </c>
       <c r="L28" t="n">
-        <v>167.1134138445161</v>
+        <v>167.1134138445162</v>
       </c>
       <c r="M28" t="n">
-        <v>186.691727601278</v>
+        <v>186.6917276012781</v>
       </c>
       <c r="N28" t="n">
-        <v>187.7421271326736</v>
+        <v>187.7421271326737</v>
       </c>
       <c r="O28" t="n">
-        <v>157.2321650735812</v>
+        <v>157.2321650735813</v>
       </c>
       <c r="P28" t="n">
-        <v>110.7810150386611</v>
+        <v>110.7810150386612</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>165.6180791776029</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K29" t="n">
-        <v>370.1830173641765</v>
+        <v>370.1830173641766</v>
       </c>
       <c r="L29" t="n">
-        <v>512.0494411468791</v>
+        <v>512.0494411468792</v>
       </c>
       <c r="M29" t="n">
-        <v>586.5279529972038</v>
+        <v>586.5279529972039</v>
       </c>
       <c r="N29" t="n">
-        <v>581.2387929719732</v>
+        <v>581.2387929719735</v>
       </c>
       <c r="O29" t="n">
-        <v>503.2032315949261</v>
+        <v>503.2032315949263</v>
       </c>
       <c r="P29" t="n">
-        <v>391.4173839182175</v>
+        <v>391.4173839182176</v>
       </c>
       <c r="Q29" t="n">
-        <v>215.9363768081745</v>
+        <v>215.9363768081747</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K30" t="n">
-        <v>42.91567107878939</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L30" t="n">
-        <v>421.2493827492254</v>
+        <v>475.3362068029156</v>
       </c>
       <c r="M30" t="n">
-        <v>607.1991974616938</v>
+        <v>452.9009060898539</v>
       </c>
       <c r="N30" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O30" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P30" t="n">
-        <v>398.242959848362</v>
+        <v>398.2429598483621</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>86.76248237651873</v>
+        <v>86.76248237651878</v>
       </c>
       <c r="L31" t="n">
-        <v>167.1134138445161</v>
+        <v>167.1134138445162</v>
       </c>
       <c r="M31" t="n">
-        <v>186.691727601278</v>
+        <v>186.6917276012781</v>
       </c>
       <c r="N31" t="n">
-        <v>187.7421271326736</v>
+        <v>187.7421271326737</v>
       </c>
       <c r="O31" t="n">
-        <v>157.2321650735812</v>
+        <v>157.2321650735813</v>
       </c>
       <c r="P31" t="n">
-        <v>110.7810150386611</v>
+        <v>110.7810150386612</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>165.6180791776029</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K32" t="n">
-        <v>370.1830173641765</v>
+        <v>370.1830173641766</v>
       </c>
       <c r="L32" t="n">
-        <v>512.0494411468791</v>
+        <v>512.0494411468792</v>
       </c>
       <c r="M32" t="n">
-        <v>586.5279529972038</v>
+        <v>586.5279529972039</v>
       </c>
       <c r="N32" t="n">
-        <v>581.2387929719732</v>
+        <v>581.2387929719735</v>
       </c>
       <c r="O32" t="n">
-        <v>503.2032315949261</v>
+        <v>503.2032315949263</v>
       </c>
       <c r="P32" t="n">
-        <v>391.4173839182175</v>
+        <v>391.4173839182176</v>
       </c>
       <c r="Q32" t="n">
-        <v>215.9363768081745</v>
+        <v>215.9363768081747</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K33" t="n">
         <v>307.380908091368</v>
       </c>
       <c r="L33" t="n">
-        <v>475.3362068029155</v>
+        <v>475.3362068029156</v>
       </c>
       <c r="M33" t="n">
-        <v>607.1991974616938</v>
+        <v>452.9009060898539</v>
       </c>
       <c r="N33" t="n">
-        <v>159.7932491856904</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O33" t="n">
-        <v>468.310712103442</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P33" t="n">
-        <v>398.242959848362</v>
+        <v>398.2429598483621</v>
       </c>
       <c r="Q33" t="n">
-        <v>212.9848020488506</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>86.76248237651873</v>
+        <v>86.76248237651878</v>
       </c>
       <c r="L34" t="n">
-        <v>167.1134138445161</v>
+        <v>167.1134138445162</v>
       </c>
       <c r="M34" t="n">
-        <v>186.691727601278</v>
+        <v>186.6917276012781</v>
       </c>
       <c r="N34" t="n">
-        <v>187.7421271326736</v>
+        <v>187.7421271326737</v>
       </c>
       <c r="O34" t="n">
-        <v>157.2321650735812</v>
+        <v>157.2321650735813</v>
       </c>
       <c r="P34" t="n">
-        <v>110.7810150386611</v>
+        <v>110.7810150386612</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>165.6180791776029</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K35" t="n">
-        <v>370.1830173641765</v>
+        <v>370.1830173641766</v>
       </c>
       <c r="L35" t="n">
-        <v>512.0494411468791</v>
+        <v>512.0494411468792</v>
       </c>
       <c r="M35" t="n">
-        <v>586.5279529972038</v>
+        <v>586.5279529972039</v>
       </c>
       <c r="N35" t="n">
-        <v>581.2387929719732</v>
+        <v>581.2387929719735</v>
       </c>
       <c r="O35" t="n">
-        <v>503.2032315949261</v>
+        <v>503.2032315949263</v>
       </c>
       <c r="P35" t="n">
-        <v>391.4173839182175</v>
+        <v>391.4173839182176</v>
       </c>
       <c r="Q35" t="n">
-        <v>215.9363768081745</v>
+        <v>215.9363768081747</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K36" t="n">
-        <v>42.91567107878939</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L36" t="n">
-        <v>421.2493827492254</v>
+        <v>475.3362068029156</v>
       </c>
       <c r="M36" t="n">
-        <v>607.1991974616938</v>
+        <v>452.9009060898539</v>
       </c>
       <c r="N36" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O36" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P36" t="n">
-        <v>398.242959848362</v>
+        <v>398.2429598483621</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>86.76248237651873</v>
+        <v>86.76248237651878</v>
       </c>
       <c r="L37" t="n">
-        <v>167.1134138445161</v>
+        <v>167.1134138445162</v>
       </c>
       <c r="M37" t="n">
-        <v>186.691727601278</v>
+        <v>186.6917276012781</v>
       </c>
       <c r="N37" t="n">
-        <v>187.7421271326736</v>
+        <v>187.7421271326737</v>
       </c>
       <c r="O37" t="n">
-        <v>157.2321650735812</v>
+        <v>157.2321650735813</v>
       </c>
       <c r="P37" t="n">
-        <v>110.7810150386611</v>
+        <v>110.7810150386612</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>165.6180791776029</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K38" t="n">
-        <v>370.1830173641765</v>
+        <v>370.1830173641766</v>
       </c>
       <c r="L38" t="n">
-        <v>512.0494411468791</v>
+        <v>512.0494411468792</v>
       </c>
       <c r="M38" t="n">
-        <v>586.5279529972038</v>
+        <v>586.5279529972039</v>
       </c>
       <c r="N38" t="n">
-        <v>581.2387929719732</v>
+        <v>581.2387929719735</v>
       </c>
       <c r="O38" t="n">
-        <v>503.2032315949261</v>
+        <v>503.2032315949263</v>
       </c>
       <c r="P38" t="n">
-        <v>391.4173839182175</v>
+        <v>391.4173839182176</v>
       </c>
       <c r="Q38" t="n">
-        <v>215.9363768081745</v>
+        <v>215.9363768081747</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>105.0113169132747</v>
       </c>
       <c r="K39" t="n">
-        <v>44.58058767943448</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L39" t="n">
-        <v>104.4958614994563</v>
+        <v>475.3362068029156</v>
       </c>
       <c r="M39" t="n">
-        <v>607.1991974616938</v>
+        <v>452.9009060898539</v>
       </c>
       <c r="N39" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O39" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P39" t="n">
-        <v>398.242959848362</v>
+        <v>398.2429598483621</v>
       </c>
       <c r="Q39" t="n">
-        <v>212.9848020488506</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>86.76248237651873</v>
+        <v>86.76248237651878</v>
       </c>
       <c r="L40" t="n">
-        <v>167.1134138445161</v>
+        <v>167.1134138445162</v>
       </c>
       <c r="M40" t="n">
-        <v>186.691727601278</v>
+        <v>186.6917276012781</v>
       </c>
       <c r="N40" t="n">
-        <v>187.7421271326736</v>
+        <v>187.7421271326737</v>
       </c>
       <c r="O40" t="n">
-        <v>157.2321650735812</v>
+        <v>157.2321650735813</v>
       </c>
       <c r="P40" t="n">
-        <v>110.7810150386611</v>
+        <v>110.7810150386612</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>165.6180791776029</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K41" t="n">
-        <v>370.1830173641765</v>
+        <v>370.1830173641766</v>
       </c>
       <c r="L41" t="n">
-        <v>512.0494411468791</v>
+        <v>512.0494411468792</v>
       </c>
       <c r="M41" t="n">
-        <v>586.5279529972038</v>
+        <v>586.5279529972039</v>
       </c>
       <c r="N41" t="n">
-        <v>581.2387929719732</v>
+        <v>581.2387929719735</v>
       </c>
       <c r="O41" t="n">
-        <v>503.2032315949261</v>
+        <v>503.2032315949263</v>
       </c>
       <c r="P41" t="n">
-        <v>391.4173839182175</v>
+        <v>391.4173839182176</v>
       </c>
       <c r="Q41" t="n">
-        <v>215.9363768081745</v>
+        <v>215.9363768081747</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K42" t="n">
-        <v>307.2916156650364</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L42" t="n">
-        <v>475.3362068029155</v>
+        <v>475.3362068029156</v>
       </c>
       <c r="M42" t="n">
-        <v>607.1991974616938</v>
+        <v>452.9009060898539</v>
       </c>
       <c r="N42" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O42" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P42" t="n">
-        <v>79.78019120842487</v>
+        <v>398.2429598483621</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>86.76248237651873</v>
+        <v>86.76248237651878</v>
       </c>
       <c r="L43" t="n">
-        <v>167.1134138445161</v>
+        <v>167.1134138445162</v>
       </c>
       <c r="M43" t="n">
-        <v>186.691727601278</v>
+        <v>186.6917276012781</v>
       </c>
       <c r="N43" t="n">
-        <v>187.7421271326736</v>
+        <v>187.7421271326737</v>
       </c>
       <c r="O43" t="n">
-        <v>157.2321650735812</v>
+        <v>157.2321650735813</v>
       </c>
       <c r="P43" t="n">
-        <v>110.7810150386611</v>
+        <v>110.7810150386612</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>165.6180791776029</v>
+        <v>165.6180791776031</v>
       </c>
       <c r="K44" t="n">
-        <v>370.1830173641765</v>
+        <v>370.1830173641766</v>
       </c>
       <c r="L44" t="n">
-        <v>512.0494411468791</v>
+        <v>512.0494411468793</v>
       </c>
       <c r="M44" t="n">
-        <v>586.5279529972038</v>
+        <v>586.527952997204</v>
       </c>
       <c r="N44" t="n">
-        <v>581.2387929719732</v>
+        <v>581.2387929719735</v>
       </c>
       <c r="O44" t="n">
-        <v>503.2032315949261</v>
+        <v>503.2032315949264</v>
       </c>
       <c r="P44" t="n">
-        <v>391.4173839182175</v>
+        <v>391.4173839182177</v>
       </c>
       <c r="Q44" t="n">
-        <v>215.9363768081745</v>
+        <v>215.9363768081747</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>105.0113169132748</v>
       </c>
       <c r="K45" t="n">
-        <v>42.91567107878939</v>
+        <v>307.3809080913681</v>
       </c>
       <c r="L45" t="n">
-        <v>475.3362068029155</v>
+        <v>475.3362068029156</v>
       </c>
       <c r="M45" t="n">
-        <v>607.1991974616938</v>
+        <v>452.9009060898537</v>
       </c>
       <c r="N45" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856906</v>
       </c>
       <c r="O45" t="n">
-        <v>517.5976865620062</v>
+        <v>517.5976865620063</v>
       </c>
       <c r="P45" t="n">
-        <v>344.1561357946716</v>
+        <v>398.2429598483621</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>86.76248237651873</v>
+        <v>86.7624823765188</v>
       </c>
       <c r="L46" t="n">
-        <v>167.1134138445161</v>
+        <v>167.1134138445162</v>
       </c>
       <c r="M46" t="n">
-        <v>186.691727601278</v>
+        <v>186.6917276012781</v>
       </c>
       <c r="N46" t="n">
-        <v>187.7421271326736</v>
+        <v>187.7421271326737</v>
       </c>
       <c r="O46" t="n">
-        <v>157.2321650735812</v>
+        <v>157.2321650735813</v>
       </c>
       <c r="P46" t="n">
-        <v>110.7810150386611</v>
+        <v>110.7810150386612</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
